--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" activeTab="2"/>
+    <workbookView windowHeight="17640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
     <sheet name="login" sheetId="1" r:id="rId2"/>
     <sheet name="resource" sheetId="3" r:id="rId3"/>
     <sheet name="project" sheetId="4" r:id="rId4"/>
+    <sheet name="task" sheetId="5" r:id="rId5"/>
+    <sheet name="pir" sheetId="6" r:id="rId6"/>
+    <sheet name="psi" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="75">
   <si>
     <t>case_id</t>
   </si>
@@ -55,7 +59,61 @@
     <t>{"userAccount":"13699223685","password":"Primihub@2022","passwordAgain":"Primihub@2022","verificationCode":"8577","registerType":"3","userName":"test01"}</t>
   </si>
   <si>
-    <t>{'code': 118, 'msg': '验证码失败'}</t>
+    <t>{'code':118, 'msg': '验证码失败'}</t>
+  </si>
+  <si>
+    <t>注册失败-用户名为空</t>
+  </si>
+  <si>
+    <t>{"userAccount":None,"password":"Primihub@2022","passwordAgain":"Primihub@2022","verificationCode":"857857","registerType":"3","userName":"test01"}</t>
+  </si>
+  <si>
+    <t>{'code':100, 'msg': '缺少参数:userAccount'}</t>
+  </si>
+  <si>
+    <t>注册失败-密码为空</t>
+  </si>
+  <si>
+    <t>{"userAccount":"13699223685","password":None,"passwordAgain":"Primihub@2022","verificationCode":"857857","registerType":"3","userName":"test01"}</t>
+  </si>
+  <si>
+    <t>{'code':100, 'msg': '缺少参数:password'}</t>
+  </si>
+  <si>
+    <t>注册失败-确认密码为空</t>
+  </si>
+  <si>
+    <t>{"userAccount":"13699223685","password":"Primihub@2022","passwordAgain":None,"verificationCode":"857857","registerType":"3","userName":"test01"}</t>
+  </si>
+  <si>
+    <t>{'code':100, 'msg': '缺少参数:passwordAgain'}</t>
+  </si>
+  <si>
+    <t>注册失败-验证码为空</t>
+  </si>
+  <si>
+    <t>{"userAccount":"13699223685","password":"Primihub@2022","passwordAgain":"Primihub@2022","verificationCode":None,"registerType":"3","userName":"test01"}</t>
+  </si>
+  <si>
+    <t>{'code':100, 'msg': '缺少参数:verificationCode'}</t>
+  </si>
+  <si>
+    <t>注册失败-账号已注册</t>
+  </si>
+  <si>
+    <t>{"userAccount":"13699223685","password":"Primihub@2022","passwordAgain":"Primihub@2022","verificationCode":"857857","registerType":"3","userName":"test01"}</t>
+  </si>
+  <si>
+    <t>{'code':106, 'msg': '不可重复:账户名称'}</t>
+  </si>
+  <si>
+    <t>两次密码不一致</t>
+  </si>
+  <si>
+    <t>{"userAccount":"13699223686","password":"Primihub@2021","passwordAgain":"Primihub@2022","verificationCode":"857857","registerType":"3","userName":"test01"}</t>
+  </si>
+  <si>
+    <t>{'code':101, 'msg': '无效参数:password not match'}</t>
   </si>
   <si>
     <t>注册成功</t>
@@ -64,7 +122,7 @@
     <t>{"userAccount":"#phone#","password":"Primihub@2022","passwordAgain":"Primihub@2022","verificationCode":"857857","registerType":"3","userName":"test01"}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功'}</t>
+    <t>{'code':0, 'msg': '请求成功'}</t>
   </si>
   <si>
     <t>登录</t>
@@ -79,7 +137,22 @@
     <t>{"userAccount":"test","userPassword":"123"}</t>
   </si>
   <si>
-    <t>{'code': 109, 'msg': '密码不正确'}</t>
+    <t>{'code':109, 'msg': '密码不正确'}</t>
+  </si>
+  <si>
+    <t>登录失败-用户名为空</t>
+  </si>
+  <si>
+    <t>{"userAccount":None,"userPassword":"123456"}</t>
+  </si>
+  <si>
+    <t>登录失败-用户不存在</t>
+  </si>
+  <si>
+    <t>{"userAccount":"wobuzai","userPassword":"123456"}</t>
+  </si>
+  <si>
+    <t>{'code':108, 'msg': '无法找到该账号'}</t>
   </si>
   <si>
     <t>登录成功</t>
@@ -110,46 +183,85 @@
     <t>{"userAccount":"test","userPassword":"123456"}</t>
   </si>
   <si>
-    <t>登录失败-用户名为空</t>
-  </si>
-  <si>
-    <t>{"userAccount":None,"userPassword":"123456"}</t>
-  </si>
-  <si>
-    <t>{'code': 100, 'msg': '缺少参数:userAccount'}</t>
+    <t>sql_code</t>
+  </si>
+  <si>
+    <t>资源管理</t>
+  </si>
+  <si>
+    <t>编辑资源</t>
+  </si>
+  <si>
+    <t>/resource/saveorupdateresource</t>
+  </si>
+  <si>
+    <t>{"resourceName":"apitest_编辑资源-名称","resourceDesc":"apitest_编辑资源-描述","tags":["host"],"resourceSource":1,"resourceAuthType":1,"fileId":1160,"fieldList":[{"fieldId":484,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":485,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":486,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":487,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":488,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":489,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":490,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"resourceId":"#resourceId#","timestamp":#timestamp#,"nonce":802,"token":"#token#"}</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'msg': '请求成功'}</t>
+  </si>
+  <si>
+    <t>添加资源</t>
+  </si>
+  <si>
+    <t>{"resourceName":"apitest_添加资源-名称","resourceDesc":"apitest_添加资源-描述","tags":["111"],"resourceSource":1,"resourceAuthType":1,"fileId":1161,"fieldList":[{"fieldId":null,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
+  </si>
+  <si>
+    <t>select * from privacy_test1.data_resource where user_id="#user_id#"</t>
+  </si>
+  <si>
+    <t>添加失败-资源名称为空</t>
+  </si>
+  <si>
+    <t>{"resourceName":null,"resourceDesc":"apitest_添加资源-描述","tags":["111"],"resourceSource":1,"resourceAuthType":1,"fileId":1161,"fieldList":[{"fieldId":null,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
+  </si>
+  <si>
+    <t>{'code':100, 'msg': '缺少参数:resourceName'}</t>
+  </si>
+  <si>
+    <t>添加失败-资源描述为空</t>
+  </si>
+  <si>
+    <t>{"resourceName":"apitest_添加资源-名称","resourceDesc":null,"tags":["111"],"resourceSource":1,"resourceAuthType":1,"fileId":1161,"fieldList":[{"fieldId":null,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
+  </si>
+  <si>
+    <t>{'code':100, 'msg': '缺少参数:resourceDesc'}</t>
+  </si>
+  <si>
+    <t>添加失败-关键词为空</t>
+  </si>
+  <si>
+    <t>{"resourceName":"apitest_添加资源-名称","resourceDesc":"apitest_添加资源-描述","tags":null,"resourceSource":1,"resourceAuthType":1,"fileId":1161,"fieldList":[{"fieldId":null,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
+  </si>
+  <si>
+    <t>{'code':100, 'msg': '缺少参数:tags'}</t>
+  </si>
+  <si>
+    <t>添加失败-授权方式为空</t>
+  </si>
+  <si>
+    <t>{"resourceName":"apitest_添加资源-名称","resourceDesc":"apitest_添加资源-描述","tags":["111"],"resourceSource":1,"resourceAuthType":null,"fileId":1161,"fieldList":[{"fieldId":null,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
+  </si>
+  <si>
+    <t>{'code':100, 'msg': '缺少参数:resourceAuthType'}</t>
+  </si>
+  <si>
+    <t>添加成功-授权方式为私有</t>
+  </si>
+  <si>
+    <t>{"resourceName":"apitest_添加资源-名称","resourceDesc":"apitest_添加资源-描述","tags":["111"],"resourceSource":1,"resourceAuthType":2,"fileId":1161,"fieldList":[{"fieldId":null,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
   </si>
   <si>
     <t>header</t>
   </si>
   <si>
-    <t>sql_code</t>
-  </si>
-  <si>
-    <t>资源管理</t>
-  </si>
-  <si>
-    <t>编辑资源</t>
-  </si>
-  <si>
-    <t>/resource/saveorupdateresource</t>
+    <t>项目管理</t>
   </si>
   <si>
     <t>{"Content-Type":"application/json;charset=UTF-8"}</t>
   </si>
   <si>
-    <t>{"resourceName":"09111host","resourceDesc":"09111","tags":["host"],"resourceSource":1,"resourceAuthType":1,"fileId":1160,"fieldList":[{"fieldId":484,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":485,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":486,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":487,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":488,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":489,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":490,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"resourceId":"70","timestamp":#timestamp#,"nonce":802,"token":"#token#"}</t>
-  </si>
-  <si>
-    <t>添加资源</t>
-  </si>
-  <si>
     <t>{"resourceName":"111","resourceDesc":"111","tags":["111"],"resourceSource":1,"resourceAuthType":1,"fileId":1161,"fieldList":[{"fieldId":null,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
-  </si>
-  <si>
-    <t>select * from privacy_test1.data_resource where user_id="#user_id#"</t>
-  </si>
-  <si>
-    <t>项目管理</t>
   </si>
   <si>
     <t>{"resourceName":"09111host","resourceDesc":"09111","tags":["host"],"resourceSource":1,"resourceAuthType":1,"fileId":1160,"fieldList":[{"fieldId":484,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":485,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":486,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":487,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":488,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":489,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":490,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"resourceId":70,"timestamp":#timestamp#,"nonce":802,"token":"#token#"}</t>
@@ -160,9 +272,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -198,7 +310,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,15 +386,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,30 +394,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,25 +424,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,28 +437,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -335,181 +447,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,6 +638,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,36 +730,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -615,224 +738,226 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1101,94 +1226,237 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="21.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="29.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="78.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="45.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="21.6696428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="29.5535714285714" style="3" customWidth="1"/>
+    <col min="6" max="6" width="78.5535714285714" style="3" customWidth="1"/>
+    <col min="7" max="7" width="45.5535714285714" style="3" customWidth="1"/>
+    <col min="8" max="8" width="29" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" ht="13" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+    <row r="2" ht="25" spans="1:7">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+    <row r="3" ht="25" spans="1:7">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="4" ht="25" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="25" spans="1:7">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="25" spans="1:7">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="25" spans="1:7">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="25" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="25" spans="1:7">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://test1.primihub.com/prod-api/sys/user/register" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
     <hyperlink ref="E3" r:id="rId1" display="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E7" r:id="rId1" display="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E9" r:id="rId1" display="http://test1.primihub.com/prod-api/sys/user/register"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1198,116 +1466,143 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="206" zoomScaleNormal="206" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="13.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="44.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="69.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="29.3333333333333" customWidth="1"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="21.0446428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="24.8660714285714" style="3" customWidth="1"/>
+    <col min="6" max="6" width="41.2410714285714" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44.7410714285714" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" ht="13" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+    <row r="2" ht="25" spans="1:7">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" ht="25" spans="1:7">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    <row r="4" ht="25" spans="1:7">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
+      <c r="E4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" ht="25" spans="1:7">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="http://test1.primihub.com/prod-api/sys/user/login"/>
     <hyperlink ref="E3" r:id="rId1" display="http://test1.primihub.com/prod-api/sys/user/login"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://test1.primihub.com/prod-api/sys/user/login"/>
     <hyperlink ref="E4" r:id="rId1" display="http://test1.primihub.com/prod-api/sys/user/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1319,27 +1614,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.4" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.66666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88888888888889" style="1"/>
-    <col min="3" max="3" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.22222222222222" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5925925925926" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="7" width="66.7777777777778" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.1111111111111" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.6666666666667" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="6.78571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.9017857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.3571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="94.4910714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.0357142857143" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.9642857142857" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.89285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.6" spans="1:9">
+    <row r="1" ht="13" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,77 +1650,188 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="132" customHeight="1" spans="1:9">
+    <row r="2" ht="137" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="122" customHeight="1" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" ht="137" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" ht="137" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" ht="149" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" ht="124" spans="1:8">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" ht="124" spans="1:8">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" ht="137" spans="1:8">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
     <hyperlink ref="E3" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E4" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E5" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E6" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E7" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E8" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1438,24 +1843,24 @@
   <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="5.66666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88888888888889" style="1"/>
-    <col min="3" max="3" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.22222222222222" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5925925925926" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.66964285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.89285714285714" style="1"/>
+    <col min="3" max="3" width="20.2321428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5892857142857" style="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="7" width="66.7777777777778" style="1" customWidth="1"/>
-    <col min="8" max="9" width="33.6666666666667" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88888888888889" style="1"/>
+    <col min="7" max="7" width="66.7767857142857" style="1" customWidth="1"/>
+    <col min="8" max="9" width="33.6696428571429" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.89285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27.6" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1472,13 +1877,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1489,28 +1894,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="132" customHeight="1" spans="1:9">
@@ -1518,25 +1923,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1547,4 +1952,68 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17640" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="14040" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
     <sheet name="login" sheetId="1" r:id="rId2"/>
     <sheet name="resource" sheetId="3" r:id="rId3"/>
     <sheet name="project" sheetId="4" r:id="rId4"/>
-    <sheet name="task" sheetId="5" r:id="rId5"/>
-    <sheet name="pir" sheetId="6" r:id="rId6"/>
-    <sheet name="psi" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
+    <sheet name="close_openproject" sheetId="8" r:id="rId5"/>
+    <sheet name="task" sheetId="5" r:id="rId6"/>
+    <sheet name="pir" sheetId="6" r:id="rId7"/>
+    <sheet name="psi" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
   <si>
     <t>case_id</t>
   </si>
@@ -189,27 +189,27 @@
     <t>资源管理</t>
   </si>
   <si>
+    <t>添加资源</t>
+  </si>
+  <si>
+    <t>/resource/saveorupdateresource</t>
+  </si>
+  <si>
+    <t>{"resourceName":"apitest_添加资源-名称","resourceDesc":"apitest_添加资源-描述","tags":["111"],"resourceSource":1,"resourceAuthType":1,"fileId":1161,"fieldList":[{"fieldId":null,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
+  </si>
+  <si>
+    <t>select * from privacy_test1.data_resource where user_id="#user_id#"</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'msg': '请求成功'}</t>
+  </si>
+  <si>
     <t>编辑资源</t>
   </si>
   <si>
-    <t>/resource/saveorupdateresource</t>
-  </si>
-  <si>
     <t>{"resourceName":"apitest_编辑资源-名称","resourceDesc":"apitest_编辑资源-描述","tags":["host"],"resourceSource":1,"resourceAuthType":1,"fileId":1160,"fieldList":[{"fieldId":484,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":485,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":486,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":487,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":488,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":489,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":490,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"resourceId":"#resourceId#","timestamp":#timestamp#,"nonce":802,"token":"#token#"}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': '请求成功'}</t>
-  </si>
-  <si>
-    <t>添加资源</t>
-  </si>
-  <si>
-    <t>{"resourceName":"apitest_添加资源-名称","resourceDesc":"apitest_添加资源-描述","tags":["111"],"resourceSource":1,"resourceAuthType":1,"fileId":1161,"fieldList":[{"fieldId":null,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
-  </si>
-  <si>
-    <t>select * from privacy_test1.data_resource where user_id="#user_id#"</t>
-  </si>
-  <si>
     <t>添加失败-资源名称为空</t>
   </si>
   <si>
@@ -258,13 +258,53 @@
     <t>项目管理</t>
   </si>
   <si>
+    <t>添加项目-成功</t>
+  </si>
+  <si>
+    <t>/project/saveOrUpdateProject</t>
+  </si>
+  <si>
     <t>{"Content-Type":"application/json;charset=UTF-8"}</t>
   </si>
   <si>
-    <t>{"resourceName":"111","resourceDesc":"111","tags":["111"],"resourceSource":1,"resourceAuthType":1,"fileId":1161,"fieldList":[{"fieldId":null,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
-  </si>
-  <si>
-    <t>{"resourceName":"09111host","resourceDesc":"09111","tags":["host"],"resourceSource":1,"resourceAuthType":1,"fileId":1160,"fieldList":[{"fieldId":484,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":485,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":486,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":487,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":488,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":489,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":490,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"resourceId":70,"timestamp":#timestamp#,"nonce":802,"token":"#token#"}</t>
+    <t>{"serverAddress":"#serverAddress#","projectName":"#projectName01#","projectDesc":"new_project","projectOrgans":[{"organId":"#organId02#","participationIdentity":2,"resourceIds":["#resourceFusionId02#"]},{"organId":"#organId01#","participationIdentity":1,"resourceIds":["#resourceFusionId01#"]}],"timestamp":#timestamp#,"nonce":622,"token":"#token#"}</t>
+  </si>
+  <si>
+    <t>添加失败-项目名称为空</t>
+  </si>
+  <si>
+    <t>{"serverAddress":"#serverAddress#","projectName":null,"projectDesc":"new_project","projectOrgans":[{"organId":"#organId02#","participationIdentity":2,"resourceIds":["#resourceFusionId02#"]},{"organId":"#organId01#","participationIdentity":1,"resourceIds":["#resourceFusionId01#"]}],"timestamp":#timestamp#,"nonce":622,"token":"#token#"}</t>
+  </si>
+  <si>
+    <t>{'code': 100, 'msg': '缺少参数:projectName'}</t>
+  </si>
+  <si>
+    <t>添加失败-中心节点为空</t>
+  </si>
+  <si>
+    <t>{"serverAddress":null,"projectName":"#projectName01#","projectDesc":"new_project","projectOrgans":[{"organId":"#organId02#","participationIdentity":2,"resourceIds":["#resourceFusionId02#"]},{"organId":"#organId01#","participationIdentity":1,"resourceIds":["#resourceFusionId01#"]}],"timestamp":#timestamp#,"nonce":622,"token":"#token#"}</t>
+  </si>
+  <si>
+    <t>{'code': 100, 'msg': '缺少参数:serverAddress'}</t>
+  </si>
+  <si>
+    <t>禁用项目</t>
+  </si>
+  <si>
+    <t>/project/closeProject</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded
+"}</t>
+  </si>
+  <si>
+    <t>{"id":"#id#","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
+  </si>
+  <si>
+    <t>启用项目</t>
+  </si>
+  <si>
+    <t>/project/openProject</t>
   </si>
 </sst>
 </file>
@@ -272,10 +312,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -309,8 +349,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,67 +429,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,7 +443,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -408,19 +457,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,7 +472,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,19 +493,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,157 +655,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,77 +678,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -732,6 +701,77 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -741,146 +781,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1616,8 +1656,8 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.4" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1678,8 +1718,11 @@
       <c r="F2" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" ht="137" spans="1:8">
@@ -1690,7 +1733,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -1699,13 +1742,10 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="137" spans="1:8">
@@ -1820,18 +1860,18 @@
         <v>69</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
     <hyperlink ref="E3" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
     <hyperlink ref="E4" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
     <hyperlink ref="E5" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
     <hyperlink ref="E6" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
     <hyperlink ref="E7" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
     <hyperlink ref="E8" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E2" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1841,26 +1881,26 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="89" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.66964285714286" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.69642857142857" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.89285714285714" style="1"/>
-    <col min="3" max="3" width="20.2321428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5535714285714" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.7142857142857" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5892857142857" style="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
     <col min="7" max="7" width="66.7767857142857" style="1" customWidth="1"/>
-    <col min="8" max="9" width="33.6696428571429" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.89285714285714" style="1"/>
+    <col min="8" max="8" width="33.6696428571429" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.89285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1883,13 +1923,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="122" customHeight="1" spans="1:9">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1897,28 +1934,25 @@
         <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="132" customHeight="1" spans="1:9">
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1926,28 +1960,55 @@
         <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>52</v>
+      <c r="G4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
-    <hyperlink ref="E2" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E3" r:id="rId1" display="/project/saveOrUpdateProject" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E2" r:id="rId1" display="/project/saveOrUpdateProject" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E4" r:id="rId1" display="/project/saveOrUpdateProject" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1955,6 +2016,107 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="25.8928571428571" customWidth="1"/>
+    <col min="7" max="7" width="50.4464285714286" customWidth="1"/>
+    <col min="8" max="8" width="36.0089285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="89" customHeight="1" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="89" customHeight="1" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -1970,7 +2132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -1986,7 +2148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -2000,20 +2162,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14040" activeTab="4"/>
+    <workbookView windowHeight="16960" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
     <sheet name="login" sheetId="1" r:id="rId2"/>
     <sheet name="resource" sheetId="3" r:id="rId3"/>
     <sheet name="project" sheetId="4" r:id="rId4"/>
-    <sheet name="close_openproject" sheetId="8" r:id="rId5"/>
-    <sheet name="task" sheetId="5" r:id="rId6"/>
-    <sheet name="pir" sheetId="6" r:id="rId7"/>
-    <sheet name="psi" sheetId="7" r:id="rId8"/>
+    <sheet name="project_close_open" sheetId="8" r:id="rId5"/>
+    <sheet name="project_approval" sheetId="9" r:id="rId6"/>
+    <sheet name="task" sheetId="5" r:id="rId7"/>
+    <sheet name="pir" sheetId="6" r:id="rId8"/>
+    <sheet name="psi" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="101">
   <si>
     <t>case_id</t>
   </si>
@@ -298,13 +299,52 @@
 "}</t>
   </si>
   <si>
-    <t>{"id":"#id#","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
+    <t>{"id":"#pid#","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
   </si>
   <si>
     <t>启用项目</t>
   </si>
   <si>
     <t>/project/openProject</t>
+  </si>
+  <si>
+    <t>审核项目01-同意</t>
+  </si>
+  <si>
+    <t>/project/approval</t>
+  </si>
+  <si>
+    <t>{"type":"1","id":"#organId01#","auditStatus":"1","auditOpinin":"审核项目同意","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
+  </si>
+  <si>
+    <t>审核资源01-同意</t>
+  </si>
+  <si>
+    <t>{"type":"2","id":"#resultId01#","auditStatus":"1","auditOpinin":"审核资源同意","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
+  </si>
+  <si>
+    <t>审核项目02-拒绝</t>
+  </si>
+  <si>
+    <t>{"type":"1","id":"#organId02#","auditStatus":"2","auditOpinin":"审核项目拒绝","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
+  </si>
+  <si>
+    <t>审核项目03-同意</t>
+  </si>
+  <si>
+    <t>{"type":"1","id":"#organId03#","auditStatus":"1","auditOpinin":"审核项目同意","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
+  </si>
+  <si>
+    <t>审核资源03-拒绝</t>
+  </si>
+  <si>
+    <t>{"type":"2","id":"#resultId03#","auditStatus":"2","auditOpinion":"审核资源拒绝","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
+  </si>
+  <si>
+    <t>审核资源-同意</t>
+  </si>
+  <si>
+    <t>{"type":"2","id":"#resultId#","auditStatus":"1","auditOpinin":"审核资源同意","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
   </si>
 </sst>
 </file>
@@ -312,9 +352,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -343,6 +383,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -350,16 +397,46 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,36 +450,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -411,16 +458,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -435,35 +495,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -471,8 +502,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,181 +533,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,8 +724,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,13 +739,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,211 +808,171 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1274,79 +1317,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="21.6696428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="29.5535714285714" style="3" customWidth="1"/>
-    <col min="6" max="6" width="78.5535714285714" style="3" customWidth="1"/>
-    <col min="7" max="7" width="45.5535714285714" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="21.6696428571429" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="29.5535714285714" style="4" customWidth="1"/>
+    <col min="6" max="6" width="78.5535714285714" style="4" customWidth="1"/>
+    <col min="7" max="7" width="45.5535714285714" style="4" customWidth="1"/>
+    <col min="8" max="8" width="29" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:7">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="25" spans="1:7">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
@@ -1354,22 +1397,22 @@
       </c>
     </row>
     <row r="4" ht="25" spans="1:7">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
@@ -1377,22 +1420,22 @@
       </c>
     </row>
     <row r="5" ht="25" spans="1:7">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
@@ -1400,22 +1443,22 @@
       </c>
     </row>
     <row r="6" ht="25" spans="1:7">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G6" t="s">
@@ -1423,22 +1466,22 @@
       </c>
     </row>
     <row r="7" ht="25" spans="1:7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G7" t="s">
@@ -1446,22 +1489,22 @@
       </c>
     </row>
     <row r="8" ht="25" spans="1:7">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G8" t="s">
@@ -1469,25 +1512,25 @@
       </c>
     </row>
     <row r="9" ht="25" spans="1:7">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1514,127 +1557,127 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="21.0446428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="24.8660714285714" style="3" customWidth="1"/>
-    <col min="6" max="6" width="41.2410714285714" style="3" customWidth="1"/>
-    <col min="7" max="7" width="44.7410714285714" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="21.0446428571429" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="24.8660714285714" style="4" customWidth="1"/>
+    <col min="6" max="6" width="41.2410714285714" style="4" customWidth="1"/>
+    <col min="7" max="7" width="44.7410714285714" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="25" spans="1:7">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" ht="25" spans="1:7">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="25" spans="1:7">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" ht="25" spans="1:7">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1662,204 +1705,204 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.4" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="6.78571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.9017857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.3571428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="94.4910714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.0357142857143" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.9642857142857" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.89285714285714" style="1"/>
+    <col min="1" max="1" width="6.78571428571429" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.9017857142857" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.3571428571429" style="3" customWidth="1"/>
+    <col min="6" max="6" width="94.4910714285714" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.0357142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.9642857142857" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.89285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="137" spans="1:8">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" ht="137" spans="1:8">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" ht="137" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" ht="149" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" ht="124" spans="1:8">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" ht="124" spans="1:8">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" ht="137" spans="1:8">
-      <c r="A8" s="1">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="3">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1884,59 +1927,59 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="89" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="6.69642857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.89285714285714" style="1"/>
-    <col min="3" max="3" width="24.5535714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7142857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5892857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="7" width="66.7767857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.6696428571429" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.89285714285714" style="1"/>
+    <col min="1" max="1" width="6.69642857142857" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.89285714285714" style="3"/>
+    <col min="3" max="3" width="24.5535714285714" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7142857142857" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.5892857142857" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23" style="3" customWidth="1"/>
+    <col min="7" max="7" width="66.7767857142857" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.6696428571429" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.89285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" ht="31" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A2" s="1">
+    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1945,24 +1988,24 @@
       <c r="F2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A3" s="1">
+    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1971,24 +2014,24 @@
       <c r="F3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1997,10 +2040,10 @@
       <c r="F4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2020,55 +2063,59 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="25.8928571428571" customWidth="1"/>
-    <col min="7" max="7" width="50.4464285714286" customWidth="1"/>
-    <col min="8" max="8" width="36.0089285714286" customWidth="1"/>
+    <col min="1" max="2" width="9.14285714285714" style="4"/>
+    <col min="3" max="3" width="24.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.14285714285714" style="4"/>
+    <col min="5" max="5" width="20.8303571428571" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.8928571428571" style="4" customWidth="1"/>
+    <col min="7" max="7" width="67.1160714285714" style="4" customWidth="1"/>
+    <col min="8" max="8" width="36.0089285714286" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" ht="31" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="89" customHeight="1" spans="1:8">
-      <c r="A2" s="1">
+    <row r="2" s="3" customFormat="1" ht="89" customHeight="1" spans="1:8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2077,24 +2124,24 @@
       <c r="F2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="89" customHeight="1" spans="1:8">
-      <c r="A3" s="1">
+    <row r="3" s="3" customFormat="1" ht="89" customHeight="1" spans="1:8">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2103,10 +2150,10 @@
       <c r="F3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2119,20 +2166,229 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="11.5982142857143" customWidth="1"/>
+    <col min="2" max="2" width="16.2232142857143" customWidth="1"/>
+    <col min="3" max="3" width="19.6339285714286" customWidth="1"/>
+    <col min="5" max="5" width="17.4107142857143" customWidth="1"/>
+    <col min="6" max="6" width="28.4196428571429" customWidth="1"/>
+    <col min="7" max="7" width="64.5803571428571" customWidth="1"/>
+    <col min="8" max="8" width="21.2767857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" ht="31" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="38" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="38" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" ht="38" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" ht="38" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" ht="38" spans="1:8">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A4:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="4" ht="186" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -2148,7 +2404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16960" firstSheet="1" activeTab="5"/>
+    <workbookView windowHeight="12380" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="115">
   <si>
     <t>case_id</t>
   </si>
@@ -323,6 +323,48 @@
     <t>{"type":"2","id":"#resultId01#","auditStatus":"1","auditOpinin":"审核资源同意","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
   </si>
   <si>
+    <t>审核已审核过的项目</t>
+  </si>
+  <si>
+    <t>{'code': 1005, 'msg': '审核授权失败:不可以重复审核'}</t>
+  </si>
+  <si>
+    <t>审核已审核过的资源</t>
+  </si>
+  <si>
+    <t>审核失败—type=3</t>
+  </si>
+  <si>
+    <t>{"type":"3","id":"#resultId01#","auditStatus":"1","auditOpinin":"审核资源同意","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
+  </si>
+  <si>
+    <t>{'code': 100, 'msg': '缺少参数:type'}</t>
+  </si>
+  <si>
+    <t>审核失败—类型为空</t>
+  </si>
+  <si>
+    <t>{"type":null,"id":"#resultId01#","auditStatus":"1","auditOpinin":"审核资源同意","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
+  </si>
+  <si>
+    <t>审核失败—id为空</t>
+  </si>
+  <si>
+    <t>{"type":"1","id":null,"auditStatus":"1","auditOpinin":"审核项目同意","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
+  </si>
+  <si>
+    <t>{'code': 100, 'msg': '缺少参数:id'}</t>
+  </si>
+  <si>
+    <t>审核失败—状态为空</t>
+  </si>
+  <si>
+    <t>{"type":"1","id":"#organId01#","auditStatus":null,"auditOpinin":"审核项目同意","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
+  </si>
+  <si>
+    <t>{'code': 100, 'msg': '缺少参数:auditStatus'}</t>
+  </si>
+  <si>
     <t>审核项目02-拒绝</t>
   </si>
   <si>
@@ -352,9 +394,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -383,14 +425,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,21 +461,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -428,23 +470,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,15 +492,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,14 +516,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -502,9 +523,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,11 +532,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -533,6 +575,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -545,49 +611,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,115 +749,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,11 +763,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,15 +846,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -777,190 +860,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2166,13 +2208,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.5982142857143" customWidth="1"/>
     <col min="2" max="2" width="16.2232142857143" customWidth="1"/>
@@ -2281,10 +2323,10 @@
         <v>84</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" ht="38" spans="1:8">
@@ -2307,10 +2349,10 @@
         <v>84</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" ht="38" spans="1:8">
@@ -2321,7 +2363,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -2333,9 +2375,163 @@
         <v>84</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="3" t="s">
+    </row>
+    <row r="7" ht="38" spans="1:8">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" ht="38" spans="1:8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" ht="38" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" ht="38" spans="1:8">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" ht="38" spans="1:8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" ht="38" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2364,7 +2560,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -2376,7 +2572,7 @@
         <v>84</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>53</v>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12380" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="113">
   <si>
     <t>case_id</t>
   </si>
@@ -54,7 +54,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>http://test1.primihub.com/prod-api/sys/user/register</t>
+    <t>/sys/user/register</t>
   </si>
   <si>
     <t>{"userAccount":"13699223685","password":"Primihub@2022","passwordAgain":"Primihub@2022","verificationCode":"8577","registerType":"3","userName":"test01"}</t>
@@ -132,7 +132,7 @@
     <t>登录失败-密码错误</t>
   </si>
   <si>
-    <t>http://test1.primihub.com/prod-api/sys/user/login</t>
+    <t>/sys/user/login</t>
   </si>
   <si>
     <t>{"userAccount":"test","userPassword":"123"}</t>
@@ -193,10 +193,10 @@
     <t>添加资源</t>
   </si>
   <si>
-    <t>/resource/saveorupdateresource</t>
-  </si>
-  <si>
-    <t>{"resourceName":"apitest_添加资源-名称","resourceDesc":"apitest_添加资源-描述","tags":["111"],"resourceSource":1,"resourceAuthType":1,"fileId":1161,"fieldList":[{"fieldId":null,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
+    <t>/data/resource/saveorupdateresource</t>
+  </si>
+  <si>
+    <t>{"resourceName":"apitest_添加资源-名称","resourceDesc":"apitest_添加资源-描述","tags":["111"],"resourceSource":1,"resourceAuthType":1,"fileId":"#fileId01#","fieldList":[{"fieldId":null,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
   </si>
   <si>
     <t>select * from privacy_test1.data_resource where user_id="#user_id#"</t>
@@ -208,7 +208,19 @@
     <t>编辑资源</t>
   </si>
   <si>
-    <t>{"resourceName":"apitest_编辑资源-名称","resourceDesc":"apitest_编辑资源-描述","tags":["host"],"resourceSource":1,"resourceAuthType":1,"fileId":1160,"fieldList":[{"fieldId":484,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":485,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":486,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":487,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":488,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":489,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":490,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"resourceId":"#resourceId#","timestamp":#timestamp#,"nonce":802,"token":"#token#"}</t>
+    <r>
+      <t>{"resourceName":"apitest_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编辑资源-名称","resourceDesc":"apitest_编辑资源-描述","tags":["111"],"resourceSource":1,"resourceAuthType":1,"fileId":"#fileId01#","fieldList":#fieldList#,"fusionOrganList":[],"resourceId":"#resourceId#","timestamp":"#timestamp#","nonce":494,"token":"#token#"}</t>
+    </r>
   </si>
   <si>
     <t>添加失败-资源名称为空</t>
@@ -250,7 +262,7 @@
     <t>添加成功-授权方式为私有</t>
   </si>
   <si>
-    <t>{"resourceName":"apitest_添加资源-名称","resourceDesc":"apitest_添加资源-描述","tags":["111"],"resourceSource":1,"resourceAuthType":2,"fileId":1161,"fieldList":[{"fieldId":null,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
+    <t>{"resourceName":"apitest_添加资源-名称","resourceDesc":"apitest_添加资源-描述","tags":["111"],"resourceSource":1,"resourceAuthType":2,"fileId":"#fileId01#","fieldList":[{"fieldId":null,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
   </si>
   <si>
     <t>header</t>
@@ -262,7 +274,7 @@
     <t>添加项目-成功</t>
   </si>
   <si>
-    <t>/project/saveOrUpdateProject</t>
+    <t>/data/project/saveOrUpdateProject</t>
   </si>
   <si>
     <t>{"Content-Type":"application/json;charset=UTF-8"}</t>
@@ -292,7 +304,7 @@
     <t>禁用项目</t>
   </si>
   <si>
-    <t>/project/closeProject</t>
+    <t>/data/project/closeProject</t>
   </si>
   <si>
     <t>{"Content-Type":"application/x-www-form-urlencoded
@@ -305,13 +317,13 @@
     <t>启用项目</t>
   </si>
   <si>
-    <t>/project/openProject</t>
+    <t>/data/project/openProject</t>
   </si>
   <si>
     <t>审核项目01-同意</t>
   </si>
   <si>
-    <t>/project/approval</t>
+    <t>/data/project/approval</t>
   </si>
   <si>
     <t>{"type":"1","id":"#organId01#","auditStatus":"1","auditOpinin":"审核项目同意","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
@@ -381,12 +393,6 @@
   </si>
   <si>
     <t>{"type":"2","id":"#resultId03#","auditStatus":"2","auditOpinion":"审核资源拒绝","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
-  </si>
-  <si>
-    <t>审核资源-同意</t>
-  </si>
-  <si>
-    <t>{"type":"2","id":"#resultId#","auditStatus":"1","auditOpinin":"审核资源同意","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
   </si>
 </sst>
 </file>
@@ -394,12 +400,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,14 +417,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -439,8 +437,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,6 +455,21 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,7 +483,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,7 +506,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,16 +520,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,22 +537,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,22 +560,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -581,85 +594,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,25 +744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,55 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,6 +773,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -780,28 +835,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -822,15 +859,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -845,191 +873,176 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1354,7 +1367,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1405,7 +1418,7 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1419,16 +1432,16 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1445,13 +1458,13 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1468,13 +1481,13 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1491,13 +1504,13 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1517,10 +1530,10 @@
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -1543,7 +1556,7 @@
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1563,10 +1576,10 @@
       <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1578,10 +1591,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://test1.primihub.com/prod-api/sys/user/register" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
-    <hyperlink ref="E3" r:id="rId1" display="http://test1.primihub.com/prod-api/sys/user/register"/>
-    <hyperlink ref="E7" r:id="rId1" display="http://test1.primihub.com/prod-api/sys/user/register"/>
-    <hyperlink ref="E9" r:id="rId1" display="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E2" r:id="rId1" display="/sys/user/register" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E3" r:id="rId1" display="/sys/user/register" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E7" r:id="rId1" display="/sys/user/register" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E9" r:id="rId1" display="/sys/user/register" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E4" r:id="rId1" display="/sys/user/register" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E5" r:id="rId1" display="/sys/user/register" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E6" r:id="rId1" display="/sys/user/register" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E8" r:id="rId1" display="/sys/user/register" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1594,7 +1611,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1631,7 +1648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="25" spans="1:7">
+    <row r="2" ht="13" spans="1:7">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1644,7 +1661,7 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1654,7 +1671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" ht="25" spans="1:7">
+    <row r="3" ht="13" spans="1:7">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1664,10 +1681,10 @@
       <c r="C3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1690,7 +1707,7 @@
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1700,7 +1717,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" ht="25" spans="1:7">
+    <row r="5" ht="13" spans="1:7">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -1710,10 +1727,10 @@
       <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1725,10 +1742,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://test1.primihub.com/prod-api/sys/user/login"/>
-    <hyperlink ref="E3" r:id="rId1" display="http://test1.primihub.com/prod-api/sys/user/login"/>
-    <hyperlink ref="E5" r:id="rId1" display="http://test1.primihub.com/prod-api/sys/user/login"/>
-    <hyperlink ref="E4" r:id="rId1" display="http://test1.primihub.com/prod-api/sys/user/login"/>
+    <hyperlink ref="E2" r:id="rId1" display="/sys/user/login"/>
+    <hyperlink ref="E3" r:id="rId1" display="/sys/user/login"/>
+    <hyperlink ref="E5" r:id="rId1" display="/sys/user/login"/>
+    <hyperlink ref="E4" r:id="rId1" display="/sys/user/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1741,222 +1758,222 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.4" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="6.78571428571429" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.8571428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.9017857142857" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.3571428571429" style="3" customWidth="1"/>
-    <col min="6" max="6" width="94.4910714285714" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.0357142857143" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26.9642857142857" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.89285714285714" style="3"/>
+    <col min="1" max="1" width="6.78571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.9017857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.3571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="74.7678571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.0357142857143" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.9642857142857" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.89285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="137" spans="1:8">
-      <c r="A2" s="3">
+    <row r="2" ht="174" spans="1:8">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" ht="137" spans="1:8">
-      <c r="A3" s="3">
+    <row r="3" ht="46" spans="1:8">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" ht="137" spans="1:8">
-      <c r="A4" s="3">
+    <row r="4" ht="162" spans="1:8">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" ht="149" spans="1:8">
-      <c r="A5" s="3">
+    <row r="5" ht="174" spans="1:8">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" ht="124" spans="1:8">
-      <c r="A6" s="3">
+    <row r="6" ht="174" spans="1:8">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" ht="124" spans="1:8">
-      <c r="A7" s="3">
+    <row r="7" ht="174" spans="1:8">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" ht="137" spans="1:8">
-      <c r="A8" s="3">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" ht="174" spans="1:8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
-    <hyperlink ref="E4" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
-    <hyperlink ref="E5" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
-    <hyperlink ref="E6" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
-    <hyperlink ref="E7" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
-    <hyperlink ref="E8" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
-    <hyperlink ref="E2" r:id="rId1" display="/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E3" r:id="rId1" display="/data/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E4" r:id="rId1" display="/data/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E5" r:id="rId1" display="/data/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E6" r:id="rId1" display="/data/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E7" r:id="rId1" display="/data/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E8" r:id="rId1" display="/data/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E2" r:id="rId1" display="/data/resource/saveorupdateresource" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1974,126 +1991,126 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="89" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="6.69642857142857" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.89285714285714" style="3"/>
-    <col min="3" max="3" width="24.5535714285714" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7142857142857" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.5892857142857" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23" style="3" customWidth="1"/>
-    <col min="7" max="7" width="66.7767857142857" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33.6696428571429" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.89285714285714" style="3"/>
+    <col min="1" max="1" width="6.69642857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.89285714285714" style="1"/>
+    <col min="3" max="3" width="24.5535714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5892857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="1" customWidth="1"/>
+    <col min="7" max="7" width="66.7767857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6696428571429" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.89285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="31" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A2" s="3">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A3" s="3">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="/project/saveOrUpdateProject" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
-    <hyperlink ref="E2" r:id="rId1" display="/project/saveOrUpdateProject" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
-    <hyperlink ref="E4" r:id="rId1" display="/project/saveOrUpdateProject" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E3" r:id="rId1" display="/data/project/saveOrUpdateProject" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E2" r:id="rId1" display="/data/project/saveOrUpdateProject" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
+    <hyperlink ref="E4" r:id="rId1" display="/data/project/saveOrUpdateProject" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2106,7 +2123,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -2121,81 +2138,81 @@
     <col min="9" max="16384" width="9.14285714285714" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="31" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="89" customHeight="1" spans="1:8">
-      <c r="A2" s="3">
+    <row r="2" s="1" customFormat="1" ht="89" customHeight="1" spans="1:8">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="89" customHeight="1" spans="1:8">
-      <c r="A3" s="3">
+    <row r="3" s="1" customFormat="1" ht="89" customHeight="1" spans="1:8">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2210,8 +2227,8 @@
   <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="7"/>
@@ -2225,313 +2242,313 @@
     <col min="8" max="8" width="21.2767857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="31" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="38" spans="1:8">
-      <c r="A2" s="1">
+    <row r="2" s="2" customFormat="1" ht="38" spans="1:8">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" ht="38" spans="1:8">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" ht="38" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" ht="38" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" ht="38" spans="1:8">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" ht="38" spans="1:8">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" ht="38" spans="1:8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" ht="38" spans="1:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" ht="38" spans="1:8">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" ht="38" spans="1:8">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" ht="38" spans="1:8">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2544,41 +2561,14 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:H4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="3" outlineLevelCol="7"/>
-  <sheetData>
-    <row r="4" ht="186" spans="1:8">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12280" activeTab="2"/>
+    <workbookView windowWidth="31700" windowHeight="13840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
@@ -196,7 +196,7 @@
     <t>/data/resource/saveorupdateresource</t>
   </si>
   <si>
-    <t>{"resourceName":"apitest_添加资源-名称","resourceDesc":"apitest_添加资源-描述","tags":["111"],"resourceSource":1,"resourceAuthType":1,"fileId":"#fileId01#","fieldList":[{"fieldId":null,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
+    <t>{"resourceName":"apitest_添加资源-名称","resourceDesc":"apitest_添加资源-描述","tags":["111"],"resourceSource":1,"resourceAuthType":1,"fileId":"#fileId01#","fieldList":#fieldList#,"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
   </si>
   <si>
     <t>select * from privacy_test1.data_resource where user_id="#user_id#"</t>
@@ -209,6 +209,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{"resourceName":"apitest_</t>
     </r>
     <r>
@@ -280,7 +287,7 @@
     <t>{"Content-Type":"application/json;charset=UTF-8"}</t>
   </si>
   <si>
-    <t>{"serverAddress":"#serverAddress#","projectName":"#projectName01#","projectDesc":"new_project","projectOrgans":[{"organId":"#organId02#","participationIdentity":2,"resourceIds":["#resourceFusionId02#"]},{"organId":"#organId01#","participationIdentity":1,"resourceIds":["#resourceFusionId01#"]}],"timestamp":#timestamp#,"nonce":622,"token":"#token#"}</t>
+    <t>{"serverAddress": "#serverAddress#","projectName": "#projectName01#","projectDesc": "新建项目描述","projectOrgans": [{"organId": "#organId02#","participationIdentity": 2,"resourceIds": ["#resourceFusionId02#"]}, {"organId": "#organId01#","participationIdentity": 1,"resourceIds": ["#resourceFusionId01#"]}],"timestamp":#timestamp#,"nonce":622,"token":"#token#"}</t>
   </si>
   <si>
     <t>添加失败-项目名称为空</t>
@@ -400,10 +407,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -423,14 +430,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,21 +452,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,6 +470,13 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -486,6 +493,30 @@
       <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -513,30 +544,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -545,7 +552,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,7 +560,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,19 +595,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,157 +733,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +786,72 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -803,158 +875,93 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -963,59 +970,59 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1758,7 +1765,7 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1769,7 +1776,7 @@
     <col min="3" max="3" width="22.8571428571429" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.9017857142857" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.3571428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="74.7678571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="79.4821428571429" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.0357142857143" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.9642857142857" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.89285714285714" style="1"/>
@@ -1801,7 +1808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="174" spans="1:8">
+    <row r="2" ht="38" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1850,7 +1857,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" ht="162" spans="1:8">
+    <row r="4" ht="149" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1873,7 +1880,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" ht="174" spans="1:8">
+    <row r="5" ht="186" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1896,7 +1903,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" ht="174" spans="1:8">
+    <row r="6" ht="199" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1919,7 +1926,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" ht="174" spans="1:8">
+    <row r="7" ht="199" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1942,7 +1949,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" ht="174" spans="1:8">
+    <row r="8" ht="149" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1985,8 +1992,8 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="89" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1997,7 +2004,7 @@
     <col min="4" max="4" width="10.7142857142857" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5892857142857" style="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="7" width="66.7767857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="80.0535714285714" style="1" customWidth="1"/>
     <col min="8" max="8" width="33.6696428571429" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.89285714285714" style="1"/>
   </cols>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31700" windowHeight="13840" activeTab="3"/>
+    <workbookView windowWidth="27900" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="110">
   <si>
     <t>case_id</t>
   </si>
@@ -287,25 +287,16 @@
     <t>{"Content-Type":"application/json;charset=UTF-8"}</t>
   </si>
   <si>
-    <t>{"serverAddress": "#serverAddress#","projectName": "#projectName01#","projectDesc": "新建项目描述","projectOrgans": [{"organId": "#organId02#","participationIdentity": 2,"resourceIds": ["#resourceFusionId02#"]}, {"organId": "#organId01#","participationIdentity": 1,"resourceIds": ["#resourceFusionId01#"]}],"timestamp":#timestamp#,"nonce":622,"token":"#token#"}</t>
+    <t>{"projectName": "#projectName01#","projectDesc": "新建项目描述","projectOrgans": [{"organId": "#organId02#","participationIdentity": 2,"resourceIds": ["#resourceFusionId02#"]}, {"organId": "#organId01#","participationIdentity": 1,"resourceIds": ["#resourceFusionId01#"]}],"timestamp":#timestamp#,"nonce":622,"token":"#token#"}</t>
   </si>
   <si>
     <t>添加失败-项目名称为空</t>
   </si>
   <si>
-    <t>{"serverAddress":"#serverAddress#","projectName":null,"projectDesc":"new_project","projectOrgans":[{"organId":"#organId02#","participationIdentity":2,"resourceIds":["#resourceFusionId02#"]},{"organId":"#organId01#","participationIdentity":1,"resourceIds":["#resourceFusionId01#"]}],"timestamp":#timestamp#,"nonce":622,"token":"#token#"}</t>
+    <t>{"projectName":null,"projectDesc":"new_project","projectOrgans":[{"organId":"#organId02#","participationIdentity":2,"resourceIds":["#resourceFusionId02#"]},{"organId":"#organId01#","participationIdentity":1,"resourceIds":["#resourceFusionId01#"]}],"timestamp":#timestamp#,"nonce":622,"token":"#token#"}</t>
   </si>
   <si>
     <t>{'code': 100, 'msg': '缺少参数:projectName'}</t>
-  </si>
-  <si>
-    <t>添加失败-中心节点为空</t>
-  </si>
-  <si>
-    <t>{"serverAddress":null,"projectName":"#projectName01#","projectDesc":"new_project","projectOrgans":[{"organId":"#organId02#","participationIdentity":2,"resourceIds":["#resourceFusionId02#"]},{"organId":"#organId01#","participationIdentity":1,"resourceIds":["#resourceFusionId01#"]}],"timestamp":#timestamp#,"nonce":622,"token":"#token#"}</t>
-  </si>
-  <si>
-    <t>{'code': 100, 'msg': '缺少参数:serverAddress'}</t>
   </si>
   <si>
     <t>禁用项目</t>
@@ -407,10 +398,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -443,14 +434,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -458,25 +441,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,6 +462,21 @@
       <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,29 +498,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -545,14 +506,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,7 +521,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,181 +586,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,17 +792,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,17 +816,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,151 +857,157 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1373,11 +1364,11 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="9" style="4"/>
     <col min="3" max="3" width="21.6696428571429" style="4" customWidth="1"/>
@@ -1389,7 +1380,7 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" spans="1:7">
+    <row r="1" ht="17" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="25" spans="1:7">
+    <row r="2" ht="34" spans="1:7">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1435,7 +1426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="25" spans="1:7">
+    <row r="3" ht="34" spans="1:7">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1458,7 +1449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="25" spans="1:7">
+    <row r="4" ht="34" spans="1:7">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1481,7 +1472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="25" spans="1:7">
+    <row r="5" ht="34" spans="1:7">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1504,7 +1495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="25" spans="1:7">
+    <row r="6" ht="34" spans="1:7">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1527,7 +1518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="25" spans="1:7">
+    <row r="7" ht="34" spans="1:7">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1550,7 +1541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="25" spans="1:7">
+    <row r="8" ht="34" spans="1:7">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1573,7 +1564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="25" spans="1:7">
+    <row r="9" ht="34" spans="1:7">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1621,7 +1612,7 @@
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="9" style="4"/>
     <col min="3" max="3" width="21.0446428571429" style="4" customWidth="1"/>
@@ -1632,7 +1623,7 @@
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" spans="1:7">
+    <row r="1" ht="17" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +1646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13" spans="1:7">
+    <row r="2" ht="17" spans="1:7">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1678,7 +1669,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" ht="13" spans="1:7">
+    <row r="3" ht="17" spans="1:7">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1701,7 +1692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="25" spans="1:7">
+    <row r="4" ht="34" spans="1:7">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -1724,7 +1715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" ht="13" spans="1:7">
+    <row r="5" ht="17" spans="1:7">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -1766,10 +1757,10 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.4" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.78571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
@@ -1782,7 +1773,7 @@
     <col min="9" max="16384" width="8.89285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" spans="1:8">
+    <row r="1" ht="17" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +1799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="38" spans="1:8">
+    <row r="2" ht="51" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1834,7 +1825,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" ht="46" spans="1:8">
+    <row r="3" ht="63" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1857,7 +1848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" ht="149" spans="1:8">
+    <row r="4" ht="202" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1880,7 +1871,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" ht="186" spans="1:8">
+    <row r="5" ht="252" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1903,7 +1894,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" ht="199" spans="1:8">
+    <row r="6" ht="269" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1926,7 +1917,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" ht="199" spans="1:8">
+    <row r="7" ht="269" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1949,7 +1940,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" ht="149" spans="1:8">
+    <row r="8" ht="202" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1990,13 +1981,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="89" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="89" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.69642857142857" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.89285714285714" style="1"/>
@@ -2087,37 +2078,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="/data/project/saveOrUpdateProject" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
     <hyperlink ref="E2" r:id="rId1" display="/data/project/saveOrUpdateProject" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
-    <hyperlink ref="E4" r:id="rId1" display="/data/project/saveOrUpdateProject" tooltip="http://test1.primihub.com/prod-api/sys/user/register"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2133,7 +2097,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9.14285714285714" style="4"/>
     <col min="3" max="3" width="24.25" style="4" customWidth="1"/>
@@ -2179,19 +2143,19 @@
         <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>53</v>
@@ -2205,19 +2169,19 @@
         <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>53</v>
@@ -2235,10 +2199,10 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.5982142857143" customWidth="1"/>
     <col min="2" max="2" width="16.2232142857143" customWidth="1"/>
@@ -2275,7 +2239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="38" spans="1:8">
+    <row r="2" s="2" customFormat="1" ht="51" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2283,25 +2247,25 @@
         <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" ht="38" spans="1:8">
+    <row r="3" ht="51" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2309,25 +2273,25 @@
         <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" ht="38" spans="1:8">
+    <row r="4" ht="51" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2335,25 +2299,25 @@
         <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" ht="38" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2361,25 +2325,25 @@
         <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" ht="38" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" ht="51" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2387,25 +2351,25 @@
         <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" ht="38" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" ht="51" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2413,25 +2377,25 @@
         <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" ht="38" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" ht="51" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2439,49 +2403,49 @@
         <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" ht="38" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" ht="38" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" ht="51" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2489,25 +2453,25 @@
         <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" ht="38" spans="1:8">
+    <row r="11" ht="51" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2515,25 +2479,25 @@
         <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" ht="38" spans="1:8">
+    <row r="12" ht="51" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2541,19 +2505,19 @@
         <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>53</v>
@@ -2568,14 +2532,76 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.73214285714286" customWidth="1"/>
+    <col min="2" max="2" width="10.4107142857143" customWidth="1"/>
+    <col min="3" max="3" width="16.9553571428571" customWidth="1"/>
+    <col min="5" max="5" width="20.3839285714286" customWidth="1"/>
+    <col min="6" max="6" width="36.4553571428571" customWidth="1"/>
+    <col min="7" max="7" width="54.4553571428571" customWidth="1"/>
+    <col min="8" max="8" width="28.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="51" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2590,7 +2616,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2606,7 +2632,7 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12420"/>
+    <workbookView windowWidth="27900" windowHeight="12420" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="project" sheetId="4" r:id="rId4"/>
     <sheet name="project_close_open" sheetId="8" r:id="rId5"/>
     <sheet name="project_approval" sheetId="9" r:id="rId6"/>
-    <sheet name="task" sheetId="5" r:id="rId7"/>
+    <sheet name="task_save_run" sheetId="5" r:id="rId7"/>
     <sheet name="pir" sheetId="6" r:id="rId8"/>
     <sheet name="psi" sheetId="7" r:id="rId9"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="113">
   <si>
     <t>case_id</t>
   </si>
@@ -272,31 +272,28 @@
     <t>{"resourceName":"apitest_添加资源-名称","resourceDesc":"apitest_添加资源-描述","tags":["111"],"resourceSource":1,"resourceAuthType":2,"fileId":"#fileId01#","fieldList":[{"fieldId":null,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
   </si>
   <si>
+    <t>项目管理</t>
+  </si>
+  <si>
+    <t>添加项目-成功</t>
+  </si>
+  <si>
+    <t>/data/project/saveOrUpdateProject</t>
+  </si>
+  <si>
+    <t>{"projectName": "#projectName01#","projectDesc": "新建项目描述","projectOrgans": [{"organId": "#organId02#","participationIdentity": 2,"resourceIds": ["#resourceFusionId02#"]}, {"organId": "#organId01#","participationIdentity": 1,"resourceIds": ["#resourceFusionId01#"]}],"timestamp":#timestamp#,"nonce":622,"token":"#token#"}</t>
+  </si>
+  <si>
+    <t>添加失败-项目名称为空</t>
+  </si>
+  <si>
+    <t>{"projectName":null,"projectDesc":"new_project","projectOrgans":[{"organId":"#organId02#","participationIdentity":2,"resourceIds":["#resourceFusionId02#"]},{"organId":"#organId01#","participationIdentity":1,"resourceIds":["#resourceFusionId01#"]}],"timestamp":#timestamp#,"nonce":622,"token":"#token#"}</t>
+  </si>
+  <si>
+    <t>{'code': 100, 'msg': '缺少参数:projectName'}</t>
+  </si>
+  <si>
     <t>header</t>
-  </si>
-  <si>
-    <t>项目管理</t>
-  </si>
-  <si>
-    <t>添加项目-成功</t>
-  </si>
-  <si>
-    <t>/data/project/saveOrUpdateProject</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json;charset=UTF-8"}</t>
-  </si>
-  <si>
-    <t>{"projectName": "#projectName01#","projectDesc": "新建项目描述","projectOrgans": [{"organId": "#organId02#","participationIdentity": 2,"resourceIds": ["#resourceFusionId02#"]}, {"organId": "#organId01#","participationIdentity": 1,"resourceIds": ["#resourceFusionId01#"]}],"timestamp":#timestamp#,"nonce":622,"token":"#token#"}</t>
-  </si>
-  <si>
-    <t>添加失败-项目名称为空</t>
-  </si>
-  <si>
-    <t>{"projectName":null,"projectDesc":"new_project","projectOrgans":[{"organId":"#organId02#","participationIdentity":2,"resourceIds":["#resourceFusionId02#"]},{"organId":"#organId01#","participationIdentity":1,"resourceIds":["#resourceFusionId01#"]}],"timestamp":#timestamp#,"nonce":622,"token":"#token#"}</t>
-  </si>
-  <si>
-    <t>{'code': 100, 'msg': '缺少参数:projectName'}</t>
   </si>
   <si>
     <t>禁用项目</t>
@@ -391,6 +388,18 @@
   </si>
   <si>
     <t>{"type":"2","id":"#resultId03#","auditStatus":"2","auditOpinion":"审核资源拒绝","timestamp":"#timestamp#","nonce":"527","token":"#token#"}</t>
+  </si>
+  <si>
+    <t>模型训练</t>
+  </si>
+  <si>
+    <t>纵向xgb_默认配置</t>
+  </si>
+  <si>
+    <t>/data/model/saveModelAndComponent</t>
+  </si>
+  <si>
+    <t>{"param": {"projectId": #projectId#, "isDraft": 1, "modelComponents": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "coordinateX": 710, "coordinateY": 100,"width": 120, "height": 40, "shape":"start-node","componentCode": "start", "componentName": "开始","componentValues": [{"key": "taskName", "val": "纵向xgb_默认配置"}, {"key": "taskDesc", "val": "纵向xgb_默认配置"}], "input": [],"output":[{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId":"4c98af0b-277e-4f74-9d52-7e4e94390d37", "coordinateX": 650, "coordinateY": 250,"width": 180, "height": 50, "shape": "dag-node","componentCode": "dataSet", "componentName": "选择数据集","componentValues": [{"key": "selectData", "val": #xgb_val#}],"input": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "componentCode": "start","componentName": "开始", "portId": "port2", "pointType": "edge", "pointJson": ""}],"output": [{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "componentCode": "model","componentName": "模型选择", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "coordinateX": 650, "coordinateY": 413,"width": 180, "height": 50, "shape": "dag-node", "componentCode": "model", "componentName": "模型选择","componentValues": [{"key": "modelType", "val": "2"},{"key": "numTree", "val": 5}, {"key": "maxDepth", "val": 5},{"key": "regLambda", "val": "1"}, {"key": "minChildWeight", "val": 3},{"key": "isEncrypted", "val": "true"}, {"key": "mergeGh", "val": "true"},{"key": "rayGroup", "val": "true"}, {"key": "sampleType", "val": "random"},{"key": "featureSample", "val": "true"}, {"key": "modelName", "val": "纵向xgb模型"},{"key": "modelDesc", "val": "纵向xgb模型"}],"input": [{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port2", "pointType": "edge", "pointJson": ""}], "output": []}],"modelPointComponents": [{"frontComponentId": "d1804655-6591-4962-9dc2-753323f83346", "shape": "edge","input": {"cell": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "port": "port2"}, "output": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "port": "port1"}},{"frontComponentId": "9a924166-e20f-4f0e-acd2-0186caff9364", "shape": "edge","input": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37","port": "port2"},"output": {"cell": "eb315941-fbb1-4988-8808-fb887827362d", "port": "port1"}}]},"timestamp": #timestamp#, "nonce": 729, "token": "#token#"}</t>
   </si>
 </sst>
 </file>
@@ -398,10 +407,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -421,7 +430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,10 +443,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="10"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,31 +460,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,16 +491,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,28 +515,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,17 +551,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,19 +589,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,13 +745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,145 +757,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,17 +786,49 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,32 +857,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -857,163 +872,157 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1364,7 +1373,7 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1981,26 +1990,25 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="89" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="89" customHeight="1" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="6.69642857142857" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.89285714285714" style="1"/>
     <col min="3" max="3" width="24.5535714285714" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.7142857142857" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5892857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="7" width="80.0535714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.6696428571429" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.89285714285714" style="1"/>
+    <col min="6" max="6" width="80.0535714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6696428571429" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.89285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2017,65 +2025,56 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +2093,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -2126,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2140,22 +2139,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>53</v>
@@ -2166,22 +2165,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>53</v>
@@ -2199,7 +2198,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2230,7 +2229,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2244,22 +2243,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>53</v>
@@ -2270,22 +2269,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>53</v>
@@ -2296,25 +2295,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" ht="51" spans="1:8">
@@ -2322,25 +2321,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:8">
@@ -2348,25 +2347,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:8">
@@ -2374,25 +2373,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="51" spans="1:8">
@@ -2400,49 +2399,49 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="9" ht="51" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="10" ht="51" spans="1:8">
@@ -2450,22 +2449,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>53</v>
@@ -2476,22 +2475,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>53</v>
@@ -2502,22 +2501,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>53</v>
@@ -2532,24 +2531,23 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.73214285714286" customWidth="1"/>
     <col min="2" max="2" width="10.4107142857143" customWidth="1"/>
-    <col min="3" max="3" width="16.9553571428571" customWidth="1"/>
+    <col min="3" max="3" width="17.5625" customWidth="1"/>
     <col min="5" max="5" width="20.3839285714286" customWidth="1"/>
-    <col min="6" max="6" width="36.4553571428571" customWidth="1"/>
-    <col min="7" max="7" width="54.4553571428571" customWidth="1"/>
-    <col min="8" max="8" width="28.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="89.7321428571429" customWidth="1"/>
+    <col min="7" max="7" width="28.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:8">
+    <row r="1" ht="17" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2566,38 +2564,32 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="51" spans="1:8">
+    <row r="2" ht="90" customHeight="1" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>53</v>
       </c>
     </row>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12420" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="27900" windowHeight="12420" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
@@ -269,7 +269,7 @@
     <t>添加成功-授权方式为私有</t>
   </si>
   <si>
-    <t>{"resourceName":"apitest_添加资源-名称","resourceDesc":"apitest_添加资源-描述","tags":["111"],"resourceSource":1,"resourceAuthType":2,"fileId":"#fileId01#","fieldList":[{"fieldId":null,"fieldName":"Class","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x0","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x1","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x2","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x3","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x4","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0},{"fieldId":null,"fieldName":"x5","fieldType":"integer","fieldDesc":null,"relevance":0,"grouping":0,"protectionStatus":0}],"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
+    <t>{"resourceName":"apitest_添加私有资源-名称","resourceDesc":"apitest_添加私有资源-描述","tags":["111"],"resourceSource":1,"resourceAuthType":2,"fileId":"#fileId01#","fieldList":#fieldList#,"fusionOrganList":[],"timestamp":"#timestamp#","nonce":802,"token":"#token#"}</t>
   </si>
   <si>
     <t>项目管理</t>
@@ -408,8 +408,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -430,12 +430,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -445,14 +468,37 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -460,10 +506,32 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,80 +550,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -566,10 +565,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -589,13 +589,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,169 +751,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,15 +780,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -818,17 +809,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,7 +822,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,6 +837,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -883,143 +883,143 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1765,8 +1765,8 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1949,7 +1949,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" ht="202" spans="1:8">
+    <row r="8" ht="51" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2533,7 +2533,7 @@
   <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12420" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="27900" windowHeight="12420" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="127">
   <si>
     <t>case_id</t>
   </si>
@@ -400,6 +400,715 @@
   </si>
   <si>
     <t>{"param": {"projectId": #projectId#, "isDraft": 1, "modelComponents": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "coordinateX": 710, "coordinateY": 100,"width": 120, "height": 40, "shape":"start-node","componentCode": "start", "componentName": "开始","componentValues": [{"key": "taskName", "val": "纵向xgb_默认配置"}, {"key": "taskDesc", "val": "纵向xgb_默认配置"}], "input": [],"output":[{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId":"4c98af0b-277e-4f74-9d52-7e4e94390d37", "coordinateX": 650, "coordinateY": 250,"width": 180, "height": 50, "shape": "dag-node","componentCode": "dataSet", "componentName": "选择数据集","componentValues": [{"key": "selectData", "val": #xgb_val#}],"input": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "componentCode": "start","componentName": "开始", "portId": "port2", "pointType": "edge", "pointJson": ""}],"output": [{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "componentCode": "model","componentName": "模型选择", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "coordinateX": 650, "coordinateY": 413,"width": 180, "height": 50, "shape": "dag-node", "componentCode": "model", "componentName": "模型选择","componentValues": [{"key": "modelType", "val": "2"},{"key": "numTree", "val": 5}, {"key": "maxDepth", "val": 5},{"key": "regLambda", "val": "1"}, {"key": "minChildWeight", "val": 3},{"key": "isEncrypted", "val": "true"}, {"key": "mergeGh", "val": "true"},{"key": "rayGroup", "val": "true"}, {"key": "sampleType", "val": "random"},{"key": "featureSample", "val": "true"}, {"key": "modelName", "val": "纵向xgb模型"},{"key": "modelDesc", "val": "纵向xgb模型"}],"input": [{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port2", "pointType": "edge", "pointJson": ""}], "output": []}],"modelPointComponents": [{"frontComponentId": "d1804655-6591-4962-9dc2-753323f83346", "shape": "edge","input": {"cell": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "port": "port2"}, "output": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "port": "port1"}},{"frontComponentId": "9a924166-e20f-4f0e-acd2-0186caff9364", "shape": "edge","input": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37","port": "port2"},"output": {"cell": "eb315941-fbb1-4988-8808-fb887827362d", "port": "port1"}}]},"timestamp": #timestamp#, "nonce": 729, "token": "#token#"}</t>
+  </si>
+  <si>
+    <t>纵向xgb_isEncrypted为false且最小边界值</t>
+  </si>
+  <si>
+    <t>{"param": {"projectId": #projectId#, "isDraft": 1, "modelComponents": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "coordinateX": 710, "coordinateY": 100,"width": 120, "height": 40, "shape":"start-node","componentCode": "start", "componentName": "开始","componentValues": [{"key": "taskName", "val": "纵向xgb_默认配置"}, {"key": "taskDesc", "val": "纵向xgb_默认配置"}], "input": [],"output":[{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId":"4c98af0b-277e-4f74-9d52-7e4e94390d37", "coordinateX": 650, "coordinateY": 250,"width": 180, "height": 50, "shape": "dag-node","componentCode": "dataSet", "componentName": "选择数据集","componentValues": [{"key": "selectData", "val": #xgb_val#}],"input": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "componentCode": "start","componentName": "开始", "portId": "port2", "pointType": "edge", "pointJson": ""}],"output": [{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "componentCode": "model","componentName": "模型选择", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "coordinateX": 650, "coordinateY": 413,"width": 180, "height": 50, "shape": "dag-node", "componentCode": "model", "componentName": "模型选择","componentValues": [{"key": "modelType", "val": "2"},{"key": "numTree", "val": 3}, {"key": "maxDepth", "val": 3},{"key": "regLambda", "val": "1"}, {"key": "minChildWeight", "val": 5},{"key": "isEncrypted", "val": "false"}, {"key": "mergeGh", "val": "true"},{"key": "rayGroup", "val": "true"}, {"key": "sampleType", "val": "random"},{"key": "featureSample", "val": "true"}, {"key": "modelName", "val": "纵向xgb模型"},{"key": "modelDesc", "val": "纵向xgb模型"}],"input": [{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port2", "pointType": "edge", "pointJson": ""}], "output": []}],"modelPointComponents": [{"frontComponentId": "d1804655-6591-4962-9dc2-753323f83346", "shape": "edge","input": {"cell": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "port": "port2"}, "output": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "port": "port1"}},{"frontComponentId": "9a924166-e20f-4f0e-acd2-0186caff9364", "shape": "edge","input": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37","port": "port2"},"output": {"cell": "eb315941-fbb1-4988-8808-fb887827362d", "port": "port1"}}]},"timestamp": #timestamp#, "nonce": 729, "token": "#token#"}</t>
+  </si>
+  <si>
+    <t>纵向xgb_MergeGh为false且最大边界值</t>
+  </si>
+  <si>
+    <t>{"param": {"projectId": #projectId#, "isDraft": 1, "modelComponents": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "coordinateX": 710, "coordinateY": 100,"width": 120, "height": 40, "shape":"start-node","componentCode": "start", "componentName": "开始","componentValues": [{"key": "taskName", "val": "纵向xgb_默认配置"}, {"key": "taskDesc", "val": "纵向xgb_默认配置"}], "input": [],"output":[{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId":"4c98af0b-277e-4f74-9d52-7e4e94390d37", "coordinateX": 650, "coordinateY": 250,"width": 180, "height": 50, "shape": "dag-node","componentCode": "dataSet", "componentName": "选择数据集","componentValues": [{"key": "selectData", "val": #xgb_val#}],"input": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "componentCode": "start","componentName": "开始", "portId": "port2", "pointType": "edge", "pointJson": ""}],"output": [{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "componentCode": "model","componentName": "模型选择", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "coordinateX": 650, "coordinateY": 413,"width": 180, "height": 50, "shape": "dag-node", "componentCode": "model", "componentName": "模型选择","componentValues": [{"key": "modelType", "val": "2"},{"key": "numTree", "val": 10}, {"key": "maxDepth", "val": 10},{"key": "regLambda", "val": "1"}, {"key": "minChildWeight", "val": 3},{"key": "isEncrypted", "val": "true"}, {"key": "mergeGh", "val": "false"},{"key": "rayGroup", "val": "true"}, {"key": "sampleType", "val": "random"},{"key": "featureSample", "val": "true"}, {"key": "modelName", "val": "纵向xgb模型"},{"key": "modelDesc", "val": "纵向xgb模型"}],"input": [{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port2", "pointType": "edge", "pointJson": ""}], "output": []}],"modelPointComponents": [{"frontComponentId": "d1804655-6591-4962-9dc2-753323f83346", "shape": "edge","input": {"cell": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "port": "port2"}, "output": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "port": "port1"}},{"frontComponentId": "9a924166-e20f-4f0e-acd2-0186caff9364", "shape": "edge","input": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37","port": "port2"},"output": {"cell": "eb315941-fbb1-4988-8808-fb887827362d", "port": "port1"}}]},"timestamp": #timestamp#, "nonce": 729, "token": "#token#"}</t>
+  </si>
+  <si>
+    <t>纵向xgb_rayGroup为false</t>
+  </si>
+  <si>
+    <t>{"param": {"projectId": #projectId#, "isDraft": 1, "modelComponents": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "coordinateX": 710, "coordinateY": 100,"width": 120, "height": 40, "shape":"start-node","componentCode": "start", "componentName": "开始","componentValues": [{"key": "taskName", "val": "纵向xgb_默认配置"}, {"key": "taskDesc", "val": "纵向xgb_默认配置"}], "input": [],"output":[{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId":"4c98af0b-277e-4f74-9d52-7e4e94390d37", "coordinateX": 650, "coordinateY": 250,"width": 180, "height": 50, "shape": "dag-node","componentCode": "dataSet", "componentName": "选择数据集","componentValues": [{"key": "selectData", "val": #xgb_val#}],"input": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "componentCode": "start","componentName": "开始", "portId": "port2", "pointType": "edge", "pointJson": ""}],"output": [{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "componentCode": "model","componentName": "模型选择", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "coordinateX": 650, "coordinateY": 413,"width": 180, "height": 50, "shape": "dag-node", "componentCode": "model", "componentName": "模型选择","componentValues": [{"key": "modelType", "val": "2"},{"key": "numTree", "val": 5}, {"key": "maxDepth", "val": 5},{"key": "regLambda", "val": "1"}, {"key": "minChildWeight", "val": 3},{"key": "isEncrypted", "val": "true"}, {"key": "mergeGh", "val": "true"},{"key": "rayGroup", "val": "false"}, {"key": "sampleType", "val": "random"},{"key": "featureSample", "val": "true"}, {"key": "modelName", "val": "纵向xgb模型"},{"key": "modelDesc", "val": "纵向xgb模型"}],"input": [{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port2", "pointType": "edge", "pointJson": ""}], "output": []}],"modelPointComponents": [{"frontComponentId": "d1804655-6591-4962-9dc2-753323f83346", "shape": "edge","input": {"cell": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "port": "port2"}, "output": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "port": "port1"}},{"frontComponentId": "9a924166-e20f-4f0e-acd2-0186caff9364", "shape": "edge","input": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37","port": "port2"},"output": {"cell": "eb315941-fbb1-4988-8808-fb887827362d", "port": "port1"}}]},"timestamp": #timestamp#, "nonce": 729, "token": "#token#"}</t>
+  </si>
+  <si>
+    <t>纵向xgb_sample_type为goss</t>
+  </si>
+  <si>
+    <t>{"param": {"projectId": #projectId#, "isDraft": 1, "modelComponents": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "coordinateX": 710, "coordinateY": 100,"width": 120, "height": 40, "shape":"start-node","componentCode": "start", "componentName": "开始","componentValues": [{"key": "taskName", "val": "纵向xgb_默认配置"}, {"key": "taskDesc", "val": "纵向xgb_默认配置"}], "input": [],"output":[{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId":"4c98af0b-277e-4f74-9d52-7e4e94390d37", "coordinateX": 650, "coordinateY": 250,"width": 180, "height": 50, "shape": "dag-node","componentCode": "dataSet", "componentName": "选择数据集","componentValues": [{"key": "selectData", "val": #xgb_val#}],"input": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "componentCode": "start","componentName": "开始", "portId": "port2", "pointType": "edge", "pointJson": ""}],"output": [{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "componentCode": "model","componentName": "模型选择", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "coordinateX": 650, "coordinateY": 413,"width": 180, "height": 50, "shape": "dag-node", "componentCode": "model", "componentName": "模型选择","componentValues": [{"key": "modelType", "val": "2"},{"key": "numTree", "val": 5}, {"key": "maxDepth", "val": 5},{"key": "regLambda", "val": "1"}, {"key": "minChildWeight", "val": 3},{"key": "isEncrypted", "val": "true"}, {"key": "mergeGh", "val": "true"},{"key": "rayGroup", "val": "true"}, {"key": "sampleType", "val": "goss"},{"key": "featureSample", "val": "true"}, {"key": "modelName", "val": "纵向xgb模型"},{"key": "modelDesc", "val": "纵向xgb模型"}],"input": [{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port2", "pointType": "edge", "pointJson": ""}], "output": []}],"modelPointComponents": [{"frontComponentId": "d1804655-6591-4962-9dc2-753323f83346", "shape": "edge","input": {"cell": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "port": "port2"}, "output": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "port": "port1"}},{"frontComponentId": "9a924166-e20f-4f0e-acd2-0186caff9364", "shape": "edge","input": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37","port": "port2"},"output": {"cell": "eb315941-fbb1-4988-8808-fb887827362d", "port": "port1"}}]},"timestamp": #timestamp#, "nonce": 729, "token": "#token#"}</t>
+  </si>
+  <si>
+    <t>纵向xgb_feature_sample为false</t>
+  </si>
+  <si>
+    <t>{"param": {"projectId": #projectId#, "isDraft": 1, "modelComponents": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "coordinateX": 710, "coordinateY": 100,"width": 120, "height": 40, "shape":"start-node","componentCode": "start", "componentName": "开始","componentValues": [{"key": "taskName", "val": "纵向xgb_默认配置"}, {"key": "taskDesc", "val": "纵向xgb_默认配置"}], "input": [],"output":[{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId":"4c98af0b-277e-4f74-9d52-7e4e94390d37", "coordinateX": 650, "coordinateY": 250,"width": 180, "height": 50, "shape": "dag-node","componentCode": "dataSet", "componentName": "选择数据集","componentValues": [{"key": "selectData", "val": #xgb_val#}],"input": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "componentCode": "start","componentName": "开始", "portId": "port2", "pointType": "edge", "pointJson": ""}],"output": [{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "componentCode": "model","componentName": "模型选择", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "coordinateX": 650, "coordinateY": 413,"width": 180, "height": 50, "shape": "dag-node", "componentCode": "model", "componentName": "模型选择","componentValues": [{"key": "modelType", "val": "2"},{"key": "numTree", "val": 5}, {"key": "maxDepth", "val": 5},{"key": "regLambda", "val": "1"}, {"key": "minChildWeight", "val": 3},{"key": "isEncrypted", "val": "true"}, {"key": "mergeGh", "val": "true"},{"key": "rayGroup", "val": "true"}, {"key": "sampleType", "val": "random"},{"key": "featureSample", "val": "false"}, {"key": "modelName", "val": "纵向xgb模型"},{"key": "modelDesc", "val": "纵向xgb模型"}],"input": [{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port2", "pointType": "edge", "pointJson": ""}], "output": []}],"modelPointComponents": [{"frontComponentId": "d1804655-6591-4962-9dc2-753323f83346", "shape": "edge","input": {"cell": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "port": "port2"}, "output": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "port": "port1"}},{"frontComponentId": "9a924166-e20f-4f0e-acd2-0186caff9364", "shape": "edge","input": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37","port": "port2"},"output": {"cell": "eb315941-fbb1-4988-8808-fb887827362d", "port": "port1"}}]},"timestamp": #timestamp#, "nonce": 729, "token": "#token#"}</t>
+  </si>
+  <si>
+    <t>纵向lr_默认配置</t>
+  </si>
+  <si>
+    <r>
+      <t>{"param"{"projectId":#projectId#,"modelId":222,"isDraft":0,"modelComponents":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"frontComponentId":"5508592f-aacb-4b9e-ad64-4120d60833ac","coordinateX":710,"coordinateY":100,"width":120,"height":40,"shape":"start-node","componentCode":"start","componentName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","componentValues":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"key":"taskName","val":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纵向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lr-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"},{"key":"taskDesc","val":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纵向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lr-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"input":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"output":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"frontComponentId":"5a5b1961-1551-4f80-be53-ec73a6e275b3","componentCode":"dataSet","componentName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择数据集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","portId":"port1","pointType":"edge","pointJson":""}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>},{"frontComponentId":"5a5b1961-1551-4f80-be53-ec73a6e275b3","coordinateX":650,"coordinateY":262,"width":180,"height":50,"shape":"dag-node","componentCode":"dataSet","componentName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择数据集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","componentValues":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"key":"selectData","val":#xgb_val#}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"input":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"frontComponentId":"5508592f-aacb-4b9e-ad64-4120d60833ac","componentCode":"start","componentName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","portId":"port2","pointType":"edge","pointJson":""}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"output":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"frontComponentId":"ab42fac6-8948-4493-8446-d8ad114ed774","componentCode":"model","componentName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","portId":"port1","pointType":"edge","pointJson":""}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>},{"frontComponentId":"ab42fac6-8948-4493-8446-d8ad114ed774","coordinateX":740,"coordinateY":440,"width":180,"height":50,"shape":"dag-node","componentCode":"model","componentName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","componentValues":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"key":"modelType","val":"5"},{"key":"learningRate","val":"1.0"},{"key":"alpha","val":"0.0"},{"key":"epochs","val":1},{"key":"penalty","val":"l2"},{"key":"pptimalMethod","val":"momentum"},{"key":"momentum","val":"0.7"},{"key":"randomState","val":1},{"key":"scaleType","val":"z-score"},{"key":"batchSize","val":512},{"key":"sampleMethod","val":"random"},{"key":"sampleRatio","val":"0.3"},{"key":"lossType","val":"log"},{"key":"tol","val":"0.001"},{"key":"modelName","val":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纵向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lr-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"},{"key":"modelDesc","val":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纵向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lr-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"input":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"frontComponentId":"5a5b1961-1551-4f80-be53-ec73a6e275b3","componentCode":"dataSet","componentName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择数据集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","portId":"port2","pointType":"edge","pointJson":""}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"output":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"modelPointComponents":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"frontComponentId":"493e9d9f-ca46-44d4-8a7a-07da60effb26","shape":"edge","input":{"cell":"5508592f-aacb-4b9e-ad64-4120d60833ac","port":"port2"},"output":{"cell":"5a5b1961-1551-4f80-be53-ec73a6e275b3","port":"port1"}},{"frontComponentId":"8e47bb02-61db-428d-ba35-d45bb43224eb","shape":"edge","input":{"cell":"5a5b1961-1551-4f80-be53-ec73a6e275b3","port":"port2"},"output":{"cell":"ab42fac6-8948-4493-8446-d8ad114ed774","port":"port1"}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>},"timestamp":#timestamp#,"nonce":789,"token":"#token#"}</t>
+    </r>
+  </si>
+  <si>
+    <t>横向lr_默认配置</t>
+  </si>
+  <si>
+    <t>{"param":{"projectId":#projectId#,"modelId":222,"isDraft":0,"modelComponents":[{"frontComponentId":"775a574b-6b10-42e3-a3f9-fc3a47c5800f","coordinateX":720,"coordinateY":100,"width":120,"height":40,"shape":"start-node","componentCode":"start","componentName":"开始","componentValues":[{"key":"taskName","val":"横向lr-默认配置"},{"key":"taskDesc","val":"横向lr-默认配置"}],"input":[],"output":[{"frontComponentId":"d6649b73-e8a9-4cda-a16f-8741913ba567","componentCode":"dataSet","componentName":"选择数据集","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"d6649b73-e8a9-4cda-a16f-8741913ba567","coordinateX":680,"coordinateY":280,"width":180,"height":50,"shape":"dag-node","componentCode":"dataSet","componentName":"选择数据集","componentValues":[{"key":"selectData","val":#hlr_val#}],"input":[{"frontComponentId":"775a574b-6b10-42e3-a3f9-fc3a47c5800f","componentCode":"start","componentName":"开始","portId":"port2","pointType":"edge","pointJson":""}],"output":[{"frontComponentId":"dcc59a79-1122-4967-93d0-46bcb5f9c0d3","componentCode":"model","componentName":"模型选择","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"dcc59a79-1122-4967-93d0-46bcb5f9c0d3","coordinateX":680,"coordinateY":470,"width":180,"height":50,"shape":"dag-node","componentCode":"model","componentName":"模型选择","componentValues":[{"key":"modelType","val":"3"},{"key":"arbiterOrgan","val":"c8770d1e-d34d-48d7-bd83-a00c426fd4d3"},{"key":"encryption","val":"Plaintext"},{"key":"alpha","val":"0.0001"},{"key":"batchSize","val":1},{"key":"globalEpoch","val":5},{"key":"localEpoch","val":1},{"key":"maxIter","val":5},{"key":"modelName","val":"横向lr-默认配置"},{"key":"modelDesc","val":"横向lr-默认配置"}],"input":[{"frontComponentId":"d6649b73-e8a9-4cda-a16f-8741913ba567","componentCode":"dataSet","componentName":"选择数据集","portId":"port2","pointType":"edge","pointJson":""}],"output":[]}],"modelPointComponents":[{"frontComponentId":"3e1951e7-7a22-4903-9c32-bac09dec3f80","shape":"edge","input":{"cell":"775a574b-6b10-42e3-a3f9-fc3a47c5800f","port":"port2"},"output":{"cell":"d6649b73-e8a9-4cda-a16f-8741913ba567","port":"port1"}},{"frontComponentId":"151e63b6-845e-457b-b396-491fef3660f5","shape":"edge","input":{"cell":"d6649b73-e8a9-4cda-a16f-8741913ba567","port":"port2"},"output":{"cell":"dcc59a79-1122-4967-93d0-46bcb5f9c0d3","port":"port1"}}]},"timestamp":#timestamp#,"nonce":789,"token":"#token#"}</t>
   </si>
 </sst>
 </file>
@@ -407,12 +1116,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,41 +1145,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,16 +1168,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -513,14 +1229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -528,15 +1236,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,9 +1259,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -565,9 +1282,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="pingfang sc"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -589,7 +1311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,7 +1323,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,91 +1431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,43 +1443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,13 +1467,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,6 +1502,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -812,69 +1597,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -883,153 +1605,165 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1379,79 +2113,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="21.6696428571429" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="29.5535714285714" style="4" customWidth="1"/>
-    <col min="6" max="6" width="78.5535714285714" style="4" customWidth="1"/>
-    <col min="7" max="7" width="45.5535714285714" style="4" customWidth="1"/>
-    <col min="8" max="8" width="29" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="1" max="2" width="9" style="8"/>
+    <col min="3" max="3" width="21.6696428571429" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9" style="8"/>
+    <col min="5" max="5" width="29.5535714285714" style="8" customWidth="1"/>
+    <col min="6" max="6" width="78.5535714285714" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.5535714285714" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="34" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="34" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
@@ -1459,22 +2193,22 @@
       </c>
     </row>
     <row r="4" ht="34" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
@@ -1482,22 +2216,22 @@
       </c>
     </row>
     <row r="5" ht="34" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
@@ -1505,22 +2239,22 @@
       </c>
     </row>
     <row r="6" ht="34" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G6" t="s">
@@ -1528,22 +2262,22 @@
       </c>
     </row>
     <row r="7" ht="34" spans="1:7">
-      <c r="A7" s="4">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G7" t="s">
@@ -1551,22 +2285,22 @@
       </c>
     </row>
     <row r="8" ht="34" spans="1:7">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G8" t="s">
@@ -1574,25 +2308,25 @@
       </c>
     </row>
     <row r="9" ht="34" spans="1:7">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1623,127 +2357,127 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="21.0446428571429" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="24.8660714285714" style="4" customWidth="1"/>
-    <col min="6" max="6" width="41.2410714285714" style="4" customWidth="1"/>
-    <col min="7" max="7" width="44.7410714285714" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="2" width="9" style="8"/>
+    <col min="3" max="3" width="21.0446428571429" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9" style="8"/>
+    <col min="5" max="5" width="24.8660714285714" style="8" customWidth="1"/>
+    <col min="6" max="6" width="41.2410714285714" style="8" customWidth="1"/>
+    <col min="7" max="7" width="44.7410714285714" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="17" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="34" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4" s="8">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="8">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1765,210 +2499,210 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="6.78571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.9017857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.3571428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="79.4821428571429" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.0357142857143" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.9642857142857" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.89285714285714" style="1"/>
+    <col min="1" max="1" width="6.78571428571429" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.8571428571429" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.9017857142857" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.3571428571429" style="2" customWidth="1"/>
+    <col min="6" max="6" width="79.4821428571429" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.0357142857143" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.9642857142857" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.89285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:8">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" ht="63" spans="1:8">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" ht="202" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" ht="252" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" ht="269" spans="1:8">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" ht="269" spans="1:8">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" ht="51" spans="1:8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1998,82 +2732,82 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="89" customHeight="1" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.69642857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.89285714285714" style="1"/>
-    <col min="3" max="3" width="24.5535714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7142857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5892857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="80.0535714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.6696428571429" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.89285714285714" style="1"/>
+    <col min="1" max="1" width="6.69642857142857" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.89285714285714" style="2"/>
+    <col min="3" max="3" width="24.5535714285714" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7142857142857" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5892857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="80.0535714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.6696428571429" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.89285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" ht="31" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="1">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="1">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2098,91 +2832,91 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9.14285714285714" style="4"/>
-    <col min="3" max="3" width="24.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="4"/>
-    <col min="5" max="5" width="20.8303571428571" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.8928571428571" style="4" customWidth="1"/>
-    <col min="7" max="7" width="67.1160714285714" style="4" customWidth="1"/>
-    <col min="8" max="8" width="36.0089285714286" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="4"/>
+    <col min="1" max="2" width="9.14285714285714" style="8"/>
+    <col min="3" max="3" width="24.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.14285714285714" style="8"/>
+    <col min="5" max="5" width="20.8303571428571" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.8928571428571" style="8" customWidth="1"/>
+    <col min="7" max="7" width="67.1160714285714" style="8" customWidth="1"/>
+    <col min="8" max="8" width="36.0089285714286" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" ht="31" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="89" customHeight="1" spans="1:8">
-      <c r="A2" s="1">
+    <row r="2" s="2" customFormat="1" ht="89" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="89" customHeight="1" spans="1:8">
-      <c r="A3" s="1">
+    <row r="3" s="2" customFormat="1" ht="89" customHeight="1" spans="1:8">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2212,313 +2946,313 @@
     <col min="8" max="8" width="21.2767857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" ht="31" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="51" spans="1:8">
-      <c r="A2" s="2">
+    <row r="2" s="3" customFormat="1" ht="51" spans="1:8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" ht="51" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" ht="51" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:8">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" ht="51" spans="1:8">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" ht="51" spans="1:8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" ht="51" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" ht="51" spans="1:8">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" ht="51" spans="1:8">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:8">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2531,66 +3265,221 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.73214285714286" customWidth="1"/>
     <col min="2" max="2" width="10.4107142857143" customWidth="1"/>
-    <col min="3" max="3" width="17.5625" customWidth="1"/>
+    <col min="3" max="3" width="27.6785714285714" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.3839285714286" customWidth="1"/>
-    <col min="6" max="6" width="89.7321428571429" customWidth="1"/>
+    <col min="6" max="6" width="102.982142857143" customWidth="1"/>
     <col min="7" max="7" width="28.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="90" customHeight="1" spans="1:7">
-      <c r="A2" s="2">
+    <row r="2" ht="57" customHeight="1" spans="1:7">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="47" customHeight="1" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" ht="54" customHeight="1" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" ht="49" customHeight="1" spans="1:7">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" ht="59" customHeight="1" spans="1:7">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" ht="50" customHeight="1" spans="1:7">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" ht="91" customHeight="1" spans="1:6">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" ht="61" customHeight="1" spans="1:6">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12420" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="27900" windowHeight="12420" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="137">
   <si>
     <t>case_id</t>
   </si>
@@ -402,713 +402,79 @@
     <t>{"param": {"projectId": #projectId#, "isDraft": 1, "modelComponents": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "coordinateX": 710, "coordinateY": 100,"width": 120, "height": 40, "shape":"start-node","componentCode": "start", "componentName": "开始","componentValues": [{"key": "taskName", "val": "纵向xgb_默认配置"}, {"key": "taskDesc", "val": "纵向xgb_默认配置"}], "input": [],"output":[{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId":"4c98af0b-277e-4f74-9d52-7e4e94390d37", "coordinateX": 650, "coordinateY": 250,"width": 180, "height": 50, "shape": "dag-node","componentCode": "dataSet", "componentName": "选择数据集","componentValues": [{"key": "selectData", "val": #xgb_val#}],"input": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "componentCode": "start","componentName": "开始", "portId": "port2", "pointType": "edge", "pointJson": ""}],"output": [{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "componentCode": "model","componentName": "模型选择", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "coordinateX": 650, "coordinateY": 413,"width": 180, "height": 50, "shape": "dag-node", "componentCode": "model", "componentName": "模型选择","componentValues": [{"key": "modelType", "val": "2"},{"key": "numTree", "val": 5}, {"key": "maxDepth", "val": 5},{"key": "regLambda", "val": "1"}, {"key": "minChildWeight", "val": 3},{"key": "isEncrypted", "val": "true"}, {"key": "mergeGh", "val": "true"},{"key": "rayGroup", "val": "true"}, {"key": "sampleType", "val": "random"},{"key": "featureSample", "val": "true"}, {"key": "modelName", "val": "纵向xgb模型"},{"key": "modelDesc", "val": "纵向xgb模型"}],"input": [{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port2", "pointType": "edge", "pointJson": ""}], "output": []}],"modelPointComponents": [{"frontComponentId": "d1804655-6591-4962-9dc2-753323f83346", "shape": "edge","input": {"cell": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "port": "port2"}, "output": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "port": "port1"}},{"frontComponentId": "9a924166-e20f-4f0e-acd2-0186caff9364", "shape": "edge","input": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37","port": "port2"},"output": {"cell": "eb315941-fbb1-4988-8808-fb887827362d", "port": "port1"}}]},"timestamp": #timestamp#, "nonce": 729, "token": "#token#"}</t>
   </si>
   <si>
-    <t>纵向xgb_isEncrypted为false且最小边界值</t>
-  </si>
-  <si>
-    <t>{"param": {"projectId": #projectId#, "isDraft": 1, "modelComponents": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "coordinateX": 710, "coordinateY": 100,"width": 120, "height": 40, "shape":"start-node","componentCode": "start", "componentName": "开始","componentValues": [{"key": "taskName", "val": "纵向xgb_默认配置"}, {"key": "taskDesc", "val": "纵向xgb_默认配置"}], "input": [],"output":[{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId":"4c98af0b-277e-4f74-9d52-7e4e94390d37", "coordinateX": 650, "coordinateY": 250,"width": 180, "height": 50, "shape": "dag-node","componentCode": "dataSet", "componentName": "选择数据集","componentValues": [{"key": "selectData", "val": #xgb_val#}],"input": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "componentCode": "start","componentName": "开始", "portId": "port2", "pointType": "edge", "pointJson": ""}],"output": [{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "componentCode": "model","componentName": "模型选择", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "coordinateX": 650, "coordinateY": 413,"width": 180, "height": 50, "shape": "dag-node", "componentCode": "model", "componentName": "模型选择","componentValues": [{"key": "modelType", "val": "2"},{"key": "numTree", "val": 3}, {"key": "maxDepth", "val": 3},{"key": "regLambda", "val": "1"}, {"key": "minChildWeight", "val": 5},{"key": "isEncrypted", "val": "false"}, {"key": "mergeGh", "val": "true"},{"key": "rayGroup", "val": "true"}, {"key": "sampleType", "val": "random"},{"key": "featureSample", "val": "true"}, {"key": "modelName", "val": "纵向xgb模型"},{"key": "modelDesc", "val": "纵向xgb模型"}],"input": [{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port2", "pointType": "edge", "pointJson": ""}], "output": []}],"modelPointComponents": [{"frontComponentId": "d1804655-6591-4962-9dc2-753323f83346", "shape": "edge","input": {"cell": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "port": "port2"}, "output": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "port": "port1"}},{"frontComponentId": "9a924166-e20f-4f0e-acd2-0186caff9364", "shape": "edge","input": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37","port": "port2"},"output": {"cell": "eb315941-fbb1-4988-8808-fb887827362d", "port": "port1"}}]},"timestamp": #timestamp#, "nonce": 729, "token": "#token#"}</t>
-  </si>
-  <si>
-    <t>纵向xgb_MergeGh为false且最大边界值</t>
-  </si>
-  <si>
-    <t>{"param": {"projectId": #projectId#, "isDraft": 1, "modelComponents": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "coordinateX": 710, "coordinateY": 100,"width": 120, "height": 40, "shape":"start-node","componentCode": "start", "componentName": "开始","componentValues": [{"key": "taskName", "val": "纵向xgb_默认配置"}, {"key": "taskDesc", "val": "纵向xgb_默认配置"}], "input": [],"output":[{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId":"4c98af0b-277e-4f74-9d52-7e4e94390d37", "coordinateX": 650, "coordinateY": 250,"width": 180, "height": 50, "shape": "dag-node","componentCode": "dataSet", "componentName": "选择数据集","componentValues": [{"key": "selectData", "val": #xgb_val#}],"input": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "componentCode": "start","componentName": "开始", "portId": "port2", "pointType": "edge", "pointJson": ""}],"output": [{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "componentCode": "model","componentName": "模型选择", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "coordinateX": 650, "coordinateY": 413,"width": 180, "height": 50, "shape": "dag-node", "componentCode": "model", "componentName": "模型选择","componentValues": [{"key": "modelType", "val": "2"},{"key": "numTree", "val": 10}, {"key": "maxDepth", "val": 10},{"key": "regLambda", "val": "1"}, {"key": "minChildWeight", "val": 3},{"key": "isEncrypted", "val": "true"}, {"key": "mergeGh", "val": "false"},{"key": "rayGroup", "val": "true"}, {"key": "sampleType", "val": "random"},{"key": "featureSample", "val": "true"}, {"key": "modelName", "val": "纵向xgb模型"},{"key": "modelDesc", "val": "纵向xgb模型"}],"input": [{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port2", "pointType": "edge", "pointJson": ""}], "output": []}],"modelPointComponents": [{"frontComponentId": "d1804655-6591-4962-9dc2-753323f83346", "shape": "edge","input": {"cell": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "port": "port2"}, "output": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "port": "port1"}},{"frontComponentId": "9a924166-e20f-4f0e-acd2-0186caff9364", "shape": "edge","input": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37","port": "port2"},"output": {"cell": "eb315941-fbb1-4988-8808-fb887827362d", "port": "port1"}}]},"timestamp": #timestamp#, "nonce": 729, "token": "#token#"}</t>
-  </si>
-  <si>
-    <t>纵向xgb_rayGroup为false</t>
-  </si>
-  <si>
-    <t>{"param": {"projectId": #projectId#, "isDraft": 1, "modelComponents": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "coordinateX": 710, "coordinateY": 100,"width": 120, "height": 40, "shape":"start-node","componentCode": "start", "componentName": "开始","componentValues": [{"key": "taskName", "val": "纵向xgb_默认配置"}, {"key": "taskDesc", "val": "纵向xgb_默认配置"}], "input": [],"output":[{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId":"4c98af0b-277e-4f74-9d52-7e4e94390d37", "coordinateX": 650, "coordinateY": 250,"width": 180, "height": 50, "shape": "dag-node","componentCode": "dataSet", "componentName": "选择数据集","componentValues": [{"key": "selectData", "val": #xgb_val#}],"input": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "componentCode": "start","componentName": "开始", "portId": "port2", "pointType": "edge", "pointJson": ""}],"output": [{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "componentCode": "model","componentName": "模型选择", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "coordinateX": 650, "coordinateY": 413,"width": 180, "height": 50, "shape": "dag-node", "componentCode": "model", "componentName": "模型选择","componentValues": [{"key": "modelType", "val": "2"},{"key": "numTree", "val": 5}, {"key": "maxDepth", "val": 5},{"key": "regLambda", "val": "1"}, {"key": "minChildWeight", "val": 3},{"key": "isEncrypted", "val": "true"}, {"key": "mergeGh", "val": "true"},{"key": "rayGroup", "val": "false"}, {"key": "sampleType", "val": "random"},{"key": "featureSample", "val": "true"}, {"key": "modelName", "val": "纵向xgb模型"},{"key": "modelDesc", "val": "纵向xgb模型"}],"input": [{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port2", "pointType": "edge", "pointJson": ""}], "output": []}],"modelPointComponents": [{"frontComponentId": "d1804655-6591-4962-9dc2-753323f83346", "shape": "edge","input": {"cell": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "port": "port2"}, "output": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "port": "port1"}},{"frontComponentId": "9a924166-e20f-4f0e-acd2-0186caff9364", "shape": "edge","input": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37","port": "port2"},"output": {"cell": "eb315941-fbb1-4988-8808-fb887827362d", "port": "port1"}}]},"timestamp": #timestamp#, "nonce": 729, "token": "#token#"}</t>
-  </si>
-  <si>
-    <t>纵向xgb_sample_type为goss</t>
-  </si>
-  <si>
-    <t>{"param": {"projectId": #projectId#, "isDraft": 1, "modelComponents": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "coordinateX": 710, "coordinateY": 100,"width": 120, "height": 40, "shape":"start-node","componentCode": "start", "componentName": "开始","componentValues": [{"key": "taskName", "val": "纵向xgb_默认配置"}, {"key": "taskDesc", "val": "纵向xgb_默认配置"}], "input": [],"output":[{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId":"4c98af0b-277e-4f74-9d52-7e4e94390d37", "coordinateX": 650, "coordinateY": 250,"width": 180, "height": 50, "shape": "dag-node","componentCode": "dataSet", "componentName": "选择数据集","componentValues": [{"key": "selectData", "val": #xgb_val#}],"input": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "componentCode": "start","componentName": "开始", "portId": "port2", "pointType": "edge", "pointJson": ""}],"output": [{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "componentCode": "model","componentName": "模型选择", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "coordinateX": 650, "coordinateY": 413,"width": 180, "height": 50, "shape": "dag-node", "componentCode": "model", "componentName": "模型选择","componentValues": [{"key": "modelType", "val": "2"},{"key": "numTree", "val": 5}, {"key": "maxDepth", "val": 5},{"key": "regLambda", "val": "1"}, {"key": "minChildWeight", "val": 3},{"key": "isEncrypted", "val": "true"}, {"key": "mergeGh", "val": "true"},{"key": "rayGroup", "val": "true"}, {"key": "sampleType", "val": "goss"},{"key": "featureSample", "val": "true"}, {"key": "modelName", "val": "纵向xgb模型"},{"key": "modelDesc", "val": "纵向xgb模型"}],"input": [{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port2", "pointType": "edge", "pointJson": ""}], "output": []}],"modelPointComponents": [{"frontComponentId": "d1804655-6591-4962-9dc2-753323f83346", "shape": "edge","input": {"cell": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "port": "port2"}, "output": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "port": "port1"}},{"frontComponentId": "9a924166-e20f-4f0e-acd2-0186caff9364", "shape": "edge","input": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37","port": "port2"},"output": {"cell": "eb315941-fbb1-4988-8808-fb887827362d", "port": "port1"}}]},"timestamp": #timestamp#, "nonce": 729, "token": "#token#"}</t>
-  </si>
-  <si>
-    <t>纵向xgb_feature_sample为false</t>
-  </si>
-  <si>
-    <t>{"param": {"projectId": #projectId#, "isDraft": 1, "modelComponents": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "coordinateX": 710, "coordinateY": 100,"width": 120, "height": 40, "shape":"start-node","componentCode": "start", "componentName": "开始","componentValues": [{"key": "taskName", "val": "纵向xgb_默认配置"}, {"key": "taskDesc", "val": "纵向xgb_默认配置"}], "input": [],"output":[{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId":"4c98af0b-277e-4f74-9d52-7e4e94390d37", "coordinateX": 650, "coordinateY": 250,"width": 180, "height": 50, "shape": "dag-node","componentCode": "dataSet", "componentName": "选择数据集","componentValues": [{"key": "selectData", "val": #xgb_val#}],"input": [{"frontComponentId": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "componentCode": "start","componentName": "开始", "portId": "port2", "pointType": "edge", "pointJson": ""}],"output": [{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "componentCode": "model","componentName": "模型选择", "portId": "port1", "pointType": "edge", "pointJson": ""}]},{"frontComponentId": "eb315941-fbb1-4988-8808-fb887827362d", "coordinateX": 650, "coordinateY": 413,"width": 180, "height": 50, "shape": "dag-node", "componentCode": "model", "componentName": "模型选择","componentValues": [{"key": "modelType", "val": "2"},{"key": "numTree", "val": 5}, {"key": "maxDepth", "val": 5},{"key": "regLambda", "val": "1"}, {"key": "minChildWeight", "val": 3},{"key": "isEncrypted", "val": "true"}, {"key": "mergeGh", "val": "true"},{"key": "rayGroup", "val": "true"}, {"key": "sampleType", "val": "random"},{"key": "featureSample", "val": "false"}, {"key": "modelName", "val": "纵向xgb模型"},{"key": "modelDesc", "val": "纵向xgb模型"}],"input": [{"frontComponentId": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "componentCode": "dataSet","componentName": "选择数据集", "portId": "port2", "pointType": "edge", "pointJson": ""}], "output": []}],"modelPointComponents": [{"frontComponentId": "d1804655-6591-4962-9dc2-753323f83346", "shape": "edge","input": {"cell": "0c894164-cc3f-4812-8a13-16ace76ebb6b", "port": "port2"}, "output": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37", "port": "port1"}},{"frontComponentId": "9a924166-e20f-4f0e-acd2-0186caff9364", "shape": "edge","input": {"cell": "4c98af0b-277e-4f74-9d52-7e4e94390d37","port": "port2"},"output": {"cell": "eb315941-fbb1-4988-8808-fb887827362d", "port": "port1"}}]},"timestamp": #timestamp#, "nonce": 729, "token": "#token#"}</t>
-  </si>
-  <si>
     <t>纵向lr_默认配置</t>
   </si>
   <si>
-    <r>
-      <t>{"param"{"projectId":#projectId#,"modelId":222,"isDraft":0,"modelComponents":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"frontComponentId":"5508592f-aacb-4b9e-ad64-4120d60833ac","coordinateX":710,"coordinateY":100,"width":120,"height":40,"shape":"start-node","componentCode":"start","componentName":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开始</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","componentValues":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"key":"taskName","val":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纵向</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lr-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"},{"key":"taskDesc","val":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纵向</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lr-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"input":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"output":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"frontComponentId":"5a5b1961-1551-4f80-be53-ec73a6e275b3","componentCode":"dataSet","componentName":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择数据集</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","portId":"port1","pointType":"edge","pointJson":""}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>},{"frontComponentId":"5a5b1961-1551-4f80-be53-ec73a6e275b3","coordinateX":650,"coordinateY":262,"width":180,"height":50,"shape":"dag-node","componentCode":"dataSet","componentName":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择数据集</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","componentValues":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"key":"selectData","val":#xgb_val#}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"input":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"frontComponentId":"5508592f-aacb-4b9e-ad64-4120d60833ac","componentCode":"start","componentName":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开始</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","portId":"port2","pointType":"edge","pointJson":""}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"output":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"frontComponentId":"ab42fac6-8948-4493-8446-d8ad114ed774","componentCode":"model","componentName":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模型选择</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","portId":"port1","pointType":"edge","pointJson":""}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>},{"frontComponentId":"ab42fac6-8948-4493-8446-d8ad114ed774","coordinateX":740,"coordinateY":440,"width":180,"height":50,"shape":"dag-node","componentCode":"model","componentName":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模型选择</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","componentValues":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"key":"modelType","val":"5"},{"key":"learningRate","val":"1.0"},{"key":"alpha","val":"0.0"},{"key":"epochs","val":1},{"key":"penalty","val":"l2"},{"key":"pptimalMethod","val":"momentum"},{"key":"momentum","val":"0.7"},{"key":"randomState","val":1},{"key":"scaleType","val":"z-score"},{"key":"batchSize","val":512},{"key":"sampleMethod","val":"random"},{"key":"sampleRatio","val":"0.3"},{"key":"lossType","val":"log"},{"key":"tol","val":"0.001"},{"key":"modelName","val":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纵向</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lr-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"},{"key":"modelDesc","val":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纵向</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lr-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"input":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"frontComponentId":"5a5b1961-1551-4f80-be53-ec73a6e275b3","componentCode":"dataSet","componentName":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择数据集</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","portId":"port2","pointType":"edge","pointJson":""}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"output":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"modelPointComponents":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"frontComponentId":"493e9d9f-ca46-44d4-8a7a-07da60effb26","shape":"edge","input":{"cell":"5508592f-aacb-4b9e-ad64-4120d60833ac","port":"port2"},"output":{"cell":"5a5b1961-1551-4f80-be53-ec73a6e275b3","port":"port1"}},{"frontComponentId":"8e47bb02-61db-428d-ba35-d45bb43224eb","shape":"edge","input":{"cell":"5a5b1961-1551-4f80-be53-ec73a6e275b3","port":"port2"},"output":{"cell":"ab42fac6-8948-4493-8446-d8ad114ed774","port":"port1"}}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="pingfang sc"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>},"timestamp":#timestamp#,"nonce":789,"token":"#token#"}</t>
-    </r>
+    <t>{"param":{"projectId":#projectId#,"isDraft":1,"modelComponents":[{"frontComponentId":"97e3e9ec-d8fe-43c8-b4c8-a2080aefa169","coordinateX":770,"coordinateY":100,"width":120,"height":40,"shape":"start-node","componentCode":"start","componentName":"开始","componentValues":[{"key":"taskName","val":"psi-vlr"},{"key":"taskDesc","val":"psi-vlr"}],"input":[],"output":[{"frontComponentId":"1e61a007-ea43-40a8-8731-da2046cefa79","componentCode":"dataSet","componentName":"选择数据集","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"1e61a007-ea43-40a8-8731-da2046cefa79","coordinateX":740,"coordinateY":227,"width":180,"height":50,"shape":"dag-node","componentCode":"dataSet","componentName":"选择数据集","componentValues":[{"key":"selectData","val":#xgb_val#}],"input":[{"frontComponentId":"97e3e9ec-d8fe-43c8-b4c8-a2080aefa169","componentCode":"start","componentName":"开始","portId":"port2","pointType":"edge","pointJson":""}],"output":[{"frontComponentId":"1a62c229-9226-4bd8-832c-c0acc51ed093","componentCode":"model","componentName":"模型选择","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"1a62c229-9226-4bd8-832c-c0acc51ed093","coordinateX":740,"coordinateY":504,"width":180,"height":50,"shape":"dag-node","componentCode":"model","componentName":"模型选择","componentValues":[{"key":"modelType","val":"5"},{"key":"learningRate","val":"1.0"},{"key":"alpha","val":"0.0"},{"key":"epochs","val":1},{"key":"penalty","val":"l2"},{"key":"pptimalMethod","val":"momentum"},{"key":"momentum","val":"0.7"},{"key":"randomState","val":1},{"key":"scaleType","val":"z-score"},{"key":"batchSize","val":512},{"key":"sampleMethod","val":"random"},{"key":"sampleRatio","val":"0.3"},{"key":"lossType","val":"log"},{"key":"tol","val":"0.001"},{"key":"modelName","val":"psi-vlr"},{"key":"modelDesc","val":"psi-vlr"}],"input":[{"frontComponentId":"1e61a007-ea43-40a8-8731-da2046cefa79","componentCode":"dataSet","componentName":"选择数据集","portId":"port2","pointType":"edge","pointJson":""}],"output":[]}],"modelPointComponents":[{"frontComponentId":"8fba17a8-75cb-4a81-b55c-10f8b547a899","shape":"edge","input":{"port":"port2","cell":"97e3e9ec-d8fe-43c8-b4c8-a2080aefa169"},"output":{"port":"port1","cell":"1e61a007-ea43-40a8-8731-da2046cefa79"}},{"frontComponentId":"e6402a9e-3533-468f-a667-7e80512411e1","shape":"edge","input":{"cell":"1e61a007-ea43-40a8-8731-da2046cefa79","port":"port2"},"output":{"cell":"1a62c229-9226-4bd8-832c-c0acc51ed093","port":"port1"}}]},"timestamp":#timestamp#,"nonce":287,"token":"#token#"}</t>
   </si>
   <si>
     <t>横向lr_默认配置</t>
   </si>
   <si>
-    <t>{"param":{"projectId":#projectId#,"modelId":222,"isDraft":0,"modelComponents":[{"frontComponentId":"775a574b-6b10-42e3-a3f9-fc3a47c5800f","coordinateX":720,"coordinateY":100,"width":120,"height":40,"shape":"start-node","componentCode":"start","componentName":"开始","componentValues":[{"key":"taskName","val":"横向lr-默认配置"},{"key":"taskDesc","val":"横向lr-默认配置"}],"input":[],"output":[{"frontComponentId":"d6649b73-e8a9-4cda-a16f-8741913ba567","componentCode":"dataSet","componentName":"选择数据集","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"d6649b73-e8a9-4cda-a16f-8741913ba567","coordinateX":680,"coordinateY":280,"width":180,"height":50,"shape":"dag-node","componentCode":"dataSet","componentName":"选择数据集","componentValues":[{"key":"selectData","val":#hlr_val#}],"input":[{"frontComponentId":"775a574b-6b10-42e3-a3f9-fc3a47c5800f","componentCode":"start","componentName":"开始","portId":"port2","pointType":"edge","pointJson":""}],"output":[{"frontComponentId":"dcc59a79-1122-4967-93d0-46bcb5f9c0d3","componentCode":"model","componentName":"模型选择","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"dcc59a79-1122-4967-93d0-46bcb5f9c0d3","coordinateX":680,"coordinateY":470,"width":180,"height":50,"shape":"dag-node","componentCode":"model","componentName":"模型选择","componentValues":[{"key":"modelType","val":"3"},{"key":"arbiterOrgan","val":"c8770d1e-d34d-48d7-bd83-a00c426fd4d3"},{"key":"encryption","val":"Plaintext"},{"key":"alpha","val":"0.0001"},{"key":"batchSize","val":1},{"key":"globalEpoch","val":5},{"key":"localEpoch","val":1},{"key":"maxIter","val":5},{"key":"modelName","val":"横向lr-默认配置"},{"key":"modelDesc","val":"横向lr-默认配置"}],"input":[{"frontComponentId":"d6649b73-e8a9-4cda-a16f-8741913ba567","componentCode":"dataSet","componentName":"选择数据集","portId":"port2","pointType":"edge","pointJson":""}],"output":[]}],"modelPointComponents":[{"frontComponentId":"3e1951e7-7a22-4903-9c32-bac09dec3f80","shape":"edge","input":{"cell":"775a574b-6b10-42e3-a3f9-fc3a47c5800f","port":"port2"},"output":{"cell":"d6649b73-e8a9-4cda-a16f-8741913ba567","port":"port1"}},{"frontComponentId":"151e63b6-845e-457b-b396-491fef3660f5","shape":"edge","input":{"cell":"d6649b73-e8a9-4cda-a16f-8741913ba567","port":"port2"},"output":{"cell":"dcc59a79-1122-4967-93d0-46bcb5f9c0d3","port":"port1"}}]},"timestamp":#timestamp#,"nonce":789,"token":"#token#"}</t>
+    <t>{"param":{"projectId":#projectId#,"isDraft":1,"modelComponents":[{"frontComponentId":"775a574b-6b10-42e3-a3f9-fc3a47c5800f","coordinateX":720,"coordinateY":100,"width":120,"height":40,"shape":"start-node","componentCode":"start","componentName":"开始","componentValues":[{"key":"taskName","val":"横向lr-默认配置"},{"key":"taskDesc","val":"横向lr-默认配置"}],"input":[],"output":[{"frontComponentId":"d6649b73-e8a9-4cda-a16f-8741913ba567","componentCode":"dataSet","componentName":"选择数据集","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"d6649b73-e8a9-4cda-a16f-8741913ba567","coordinateX":680,"coordinateY":280,"width":180,"height":50,"shape":"dag-node","componentCode":"dataSet","componentName":"选择数据集","componentValues":[{"key":"selectData","val":#hlr_val#}],"input":[{"frontComponentId":"775a574b-6b10-42e3-a3f9-fc3a47c5800f","componentCode":"start","componentName":"开始","portId":"port2","pointType":"edge","pointJson":""}],"output":[{"frontComponentId":"dcc59a79-1122-4967-93d0-46bcb5f9c0d3","componentCode":"model","componentName":"模型选择","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"dcc59a79-1122-4967-93d0-46bcb5f9c0d3","coordinateX":680,"coordinateY":470,"width":180,"height":50,"shape":"dag-node","componentCode":"model","componentName":"模型选择","componentValues":[{"key":"modelType","val":"3"},{"key":"arbiterOrgan","val":"#organId03#"},{"key":"encryption","val":"Plaintext"},{"key":"alpha","val":"0.0001"},{"key":"batchSize","val":1},{"key":"globalEpoch","val":5},{"key":"localEpoch","val":1},{"key":"maxIter","val":5},{"key":"modelName","val":"横向lr-默认配置"},{"key":"modelDesc","val":"横向lr-默认配置"}],"input":[{"frontComponentId":"d6649b73-e8a9-4cda-a16f-8741913ba567","componentCode":"dataSet","componentName":"选择数据集","portId":"port2","pointType":"edge","pointJson":""}],"output":[]}],"modelPointComponents":[{"frontComponentId":"3e1951e7-7a22-4903-9c32-bac09dec3f80","shape":"edge","input":{"cell":"775a574b-6b10-42e3-a3f9-fc3a47c5800f","port":"port2"},"output":{"cell":"d6649b73-e8a9-4cda-a16f-8741913ba567","port":"port1"}},{"frontComponentId":"151e63b6-845e-457b-b396-491fef3660f5","shape":"edge","input":{"cell":"d6649b73-e8a9-4cda-a16f-8741913ba567","port":"port2"},"output":{"cell":"dcc59a79-1122-4967-93d0-46bcb5f9c0d3","port":"port1"}}]},"timestamp":#timestamp#,"nonce":789,"token":"#token#"}</t>
+  </si>
+  <si>
+    <t>横向nn分类_默认配置</t>
+  </si>
+  <si>
+    <t>{"param":{"projectId":#projectId#,"isDraft":1,"modelComponents":[{"frontComponentId":"31f81e8e-19f3-49ff-8050-df9009d4e5dc","coordinateX":710,"coordinateY":100,"width":120,"height":40,"shape":"start-node","componentCode":"start","componentName":"开始","componentValues":[{"key":"taskName","val":"横向NN-分类"},{"key":"taskDesc","val":"横向NN-分类"}],"input":[],"output":[{"frontComponentId":"caef59cc-b457-4af7-8e57-1a94d7f6c360","componentCode":"dataSet","componentName":"选择数据集","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"caef59cc-b457-4af7-8e57-1a94d7f6c360","coordinateX":660,"coordinateY":230,"width":180,"height":50,"shape":"dag-node","componentCode":"dataSet","componentName":"选择数据集","componentValues":[{"key":"selectData","val":#hlr_val#}],"input":[{"frontComponentId":"31f81e8e-19f3-49ff-8050-df9009d4e5dc","componentCode":"start","componentName":"开始","portId":"port2","pointType":"edge","pointJson":""}],"output":[{"frontComponentId":"175cb1fe-77b3-4301-afcb-3fbf68a70341","componentCode":"model","componentName":"模型选择","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"175cb1fe-77b3-4301-afcb-3fbf68a70341","coordinateX":680,"coordinateY":399,"width":180,"height":50,"shape":"dag-node","componentCode":"model","componentName":"模型选择","componentValues":[{"key":"modelType","val":"6"},{"key":"arbiterOrgan","val":"#organId03#"},{"key":"encryption","val":"Plaintext"},{"key":"learningRate","val":"1.0"},{"key":"alpha","val":"0.0"},{"key":"batchSize","val":1},{"key":"epoch","val":100},{"key":"optimizer","val":"adam"},{"key":"modelName","val":"横向NN-分类"},{"key":"modelDesc","val":"横向NN-分类"}],"input":[{"frontComponentId":"caef59cc-b457-4af7-8e57-1a94d7f6c360","componentCode":"dataSet","componentName":"选择数据集","portId":"port2","pointType":"edge","pointJson":""}],"output":[]}],"modelPointComponents":[{"frontComponentId":"4ad0a9e7-8f46-4a13-ad99-888cfcde0109","shape":"edge","input":{"cell":"31f81e8e-19f3-49ff-8050-df9009d4e5dc","port":"port2"},"output":{"cell":"caef59cc-b457-4af7-8e57-1a94d7f6c360","port":"port1"}},{"frontComponentId":"80817782-7d87-4030-a509-d781bd621ef3","shape":"edge","input":{"cell":"caef59cc-b457-4af7-8e57-1a94d7f6c360","port":"port2"},"output":{"cell":"175cb1fe-77b3-4301-afcb-3fbf68a70341","port":"port1"}}]},"timestamp":#timestamp#,"nonce":818,"token":"#token#"}</t>
+  </si>
+  <si>
+    <t>横向nn回归_默认配置</t>
+  </si>
+  <si>
+    <t>{"param":{"projectId":#projectId#,"isDraft":1,"modelComponents":[{"frontComponentId":"31f81e8e-19f3-49ff-8050-df9009d4e5dc","coordinateX":770,"coordinateY":100,"width":120,"height":40,"shape":"start-node","componentCode":"start","componentName":"开始","componentValues":[{"key":"taskName","val":"横向NN-回归"},{"key":"taskDesc","val":"横向NN-回归"}],"input":[],"output":[{"frontComponentId":"caef59cc-b457-4af7-8e57-1a94d7f6c360","componentCode":"dataSet","componentName":"选择数据集","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"caef59cc-b457-4af7-8e57-1a94d7f6c360","coordinateX":740,"coordinateY":230,"width":180,"height":50,"shape":"dag-node","componentCode":"dataSet","componentName":"选择数据集","componentValues":[{"key":"selectData","val":#lrnn_val#}],"input":[{"frontComponentId":"31f81e8e-19f3-49ff-8050-df9009d4e5dc","componentCode":"start","componentName":"开始","portId":"port2","pointType":"edge","pointJson":""}],"output":[{"frontComponentId":"175cb1fe-77b3-4301-afcb-3fbf68a70341","componentCode":"model","componentName":"模型选择","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"175cb1fe-77b3-4301-afcb-3fbf68a70341","coordinateX":740,"coordinateY":399,"width":180,"height":50,"shape":"dag-node","componentCode":"model","componentName":"模型选择","componentValues":[{"key":"modelType","val":"7"},{"key":"arbiterOrgan","val":"#organId03#"},{"key":"encryption","val":"Plaintext"},{"key":"learningRate","val":"1.0"},{"key":"alpha","val":"0.0"},{"key":"batchSize","val":1},{"key":"epoch","val":100},{"key":"optimizer","val":"adam"},{"key":"modelName","val":"横向NN-回归"},{"key":"modelDesc","val":"横向NN-回归"}],"input":[{"frontComponentId":"caef59cc-b457-4af7-8e57-1a94d7f6c360","componentCode":"dataSet","componentName":"选择数据集","portId":"port2","pointType":"edge","pointJson":""}],"output":[]}],"modelPointComponents":[{"frontComponentId":"4ad0a9e7-8f46-4a13-ad99-888cfcde0109","shape":"edge","input":{"port":"port2","cell":"31f81e8e-19f3-49ff-8050-df9009d4e5dc"},"output":{"port":"port1","cell":"caef59cc-b457-4af7-8e57-1a94d7f6c360"}},{"frontComponentId":"80817782-7d87-4030-a509-d781bd621ef3","shape":"edge","input":{"port":"port2","cell":"caef59cc-b457-4af7-8e57-1a94d7f6c360"},"output":{"port":"port1","cell":"175cb1fe-77b3-4301-afcb-3fbf68a70341"}}]},"timestamp":#timestamp#,"nonce":818,"token":"#token#"}</t>
+  </si>
+  <si>
+    <t>psi-纵向xgb</t>
+  </si>
+  <si>
+    <t>{"param":{"projectId":#projectId#,"isDraft":1,"modelComponents":[{"frontComponentId":"97e3e9ec-d8fe-43c8-b4c8-a2080aefa169","coordinateX":770,"coordinateY":100,"width":120,"height":40,"shape":"start-node","componentCode":"start","componentName":"开始","componentValues":[{"key":"taskName","val":"psi-xgb"},{"key":"taskDesc","val":"psi-xgb"}],"input":[],"output":[{"frontComponentId":"1e61a007-ea43-40a8-8731-da2046cefa79","componentCode":"dataSet","componentName":"选择数据集","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"1e61a007-ea43-40a8-8731-da2046cefa79","coordinateX":740,"coordinateY":227,"width":180,"height":50,"shape":"dag-node","componentCode":"dataSet","componentName":"选择数据集","componentValues":[{"key":"selectData","val":#xgb_val#}],"input":[{"frontComponentId":"97e3e9ec-d8fe-43c8-b4c8-a2080aefa169","componentCode":"start","componentName":"开始","portId":"port2","pointType":"edge","pointJson":""}],"output":[{"frontComponentId":"eef8be81-5d75-420f-a592-e3d6c81246e3","componentCode":"dataAlign","componentName":"数据对齐","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"eef8be81-5d75-420f-a592-e3d6c81246e3","coordinateX":740,"coordinateY":355,"width":180,"height":50,"shape":"dag-node","componentCode":"dataAlign","componentName":"数据对齐","componentValues":[{"key":"dataAlign","val":"1"},{"key":"MultipleSelected","val":""},{"key":"encryption","val":"1"}],"input":[{"frontComponentId":"1e61a007-ea43-40a8-8731-da2046cefa79","componentCode":"dataSet","componentName":"选择数据集","portId":"port2","pointType":"edge","pointJson":""}],"output":[{"frontComponentId":"1a62c229-9226-4bd8-832c-c0acc51ed093","componentCode":"model","componentName":"模型选择","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"1a62c229-9226-4bd8-832c-c0acc51ed093","coordinateX":740,"coordinateY":504,"width":180,"height":50,"shape":"dag-node","componentCode":"model","componentName":"模型选择","componentValues":[{"key":"modelType","val":"2"},{"key":"numTree","val":"5"},{"key":"maxDepth","val":"5"},{"key":"regLambda","val":"1"},{"key":"minChildWeight","val":"3"},{"key":"isEncrypted","val":"true"},{"key":"mergeGh","val":"true"},{"key":"featureSample","val":"true"},{"key":"modelName","val":"psi-xgb"},{"key":"modelDesc","val":"psi-xgb"}],"input":[{"frontComponentId":"eef8be81-5d75-420f-a592-e3d6c81246e3","componentCode":"dataAlign","componentName":"数据对齐","portId":"port2","pointType":"edge","pointJson":""}],"output":[]}],"modelPointComponents":[{"frontComponentId":"8fba17a8-75cb-4a81-b55c-10f8b547a899","shape":"edge","input":{"port":"port2","cell":"97e3e9ec-d8fe-43c8-b4c8-a2080aefa169"},"output":{"port":"port1","cell":"1e61a007-ea43-40a8-8731-da2046cefa79"}},{"frontComponentId":"55820c1b-e16b-407c-9bdf-e71b51d5ad2c","shape":"edge","input":{"port":"port2","cell":"1e61a007-ea43-40a8-8731-da2046cefa79"},"output":{"port":"port1","cell":"eef8be81-5d75-420f-a592-e3d6c81246e3"}},{"frontComponentId":"13337400-d8f3-4f34-af37-d49e3ea7e706","shape":"edge","input":{"port":"port2","cell":"eef8be81-5d75-420f-a592-e3d6c81246e3"},"output":{"port":"port1","cell":"1a62c229-9226-4bd8-832c-c0acc51ed093"}}]},"timestamp":#timestamp#,"nonce":287,"token":"#token#"}</t>
+  </si>
+  <si>
+    <t>psi-纵向lr</t>
+  </si>
+  <si>
+    <t>{"param":{"projectId":#projectId#,"isDraft":1,"modelComponents":[{"frontComponentId":"97e3e9ec-d8fe-43c8-b4c8-a2080aefa169","coordinateX":770,"coordinateY":100,"width":120,"height":40,"shape":"start-node","componentCode":"start","componentName":"开始","componentValues":[{"key":"taskName","val":"psi-vlr"},{"key":"taskDesc","val":"psi-vlr"}],"input":[],"output":[{"frontComponentId":"1e61a007-ea43-40a8-8731-da2046cefa79","componentCode":"dataSet","componentName":"选择数据集","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"1e61a007-ea43-40a8-8731-da2046cefa79","coordinateX":740,"coordinateY":227,"width":180,"height":50,"shape":"dag-node","componentCode":"dataSet","componentName":"选择数据集","componentValues":[{"key":"selectData","val":#xgb_val#}],"input":[{"frontComponentId":"97e3e9ec-d8fe-43c8-b4c8-a2080aefa169","componentCode":"start","componentName":"开始","portId":"port2","pointType":"edge","pointJson":""}],"output":[{"frontComponentId":"eef8be81-5d75-420f-a592-e3d6c81246e3","componentCode":"dataAlign","componentName":"数据对齐","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"eef8be81-5d75-420f-a592-e3d6c81246e3","coordinateX":740,"coordinateY":355,"width":180,"height":50,"shape":"dag-node","componentCode":"dataAlign","componentName":"数据对齐","componentValues":[{"key":"dataAlign","val":"1"},{"key":"MultipleSelected","val":""},{"key":"encryption","val":"1"}],"input":[{"frontComponentId":"1e61a007-ea43-40a8-8731-da2046cefa79","componentCode":"dataSet","componentName":"选择数据集","portId":"port2","pointType":"edge","pointJson":""}],"output":[{"frontComponentId":"1a62c229-9226-4bd8-832c-c0acc51ed093","componentCode":"model","componentName":"模型选择","portId":"port1","pointType":"edge","pointJson":""}]},{"frontComponentId":"1a62c229-9226-4bd8-832c-c0acc51ed093","coordinateX":740,"coordinateY":504,"width":180,"height":50,"shape":"dag-node","componentCode":"model","componentName":"模型选择","componentValues":[{"key":"modelType","val":"5"},{"key":"learningRate","val":"1.0"},{"key":"alpha","val":"0.0"},{"key":"epochs","val":1},{"key":"penalty","val":"l2"},{"key":"pptimalMethod","val":"momentum"},{"key":"momentum","val":"0.7"},{"key":"randomState","val":1},{"key":"scaleType","val":"z-score"},{"key":"batchSize","val":512},{"key":"sampleMethod","val":"random"},{"key":"sampleRatio","val":"0.3"},{"key":"lossType","val":"log"},{"key":"tol","val":"0.001"},{"key":"modelName","val":"psi-vlr"},{"key":"modelDesc","val":"psi-vlr"}],"input":[{"frontComponentId":"eef8be81-5d75-420f-a592-e3d6c81246e3","componentCode":"dataAlign","componentName":"数据对齐","portId":"port2","pointType":"edge","pointJson":""}],"output":[]}],"modelPointComponents":[{"frontComponentId":"8fba17a8-75cb-4a81-b55c-10f8b547a899","shape":"edge","input":{"port":"port2","cell":"97e3e9ec-d8fe-43c8-b4c8-a2080aefa169"},"output":{"port":"port1","cell":"1e61a007-ea43-40a8-8731-da2046cefa79"}},{"frontComponentId":"55820c1b-e16b-407c-9bdf-e71b51d5ad2c","shape":"edge","input":{"port":"port2","cell":"1e61a007-ea43-40a8-8731-da2046cefa79"},"output":{"port":"port1","cell":"eef8be81-5d75-420f-a592-e3d6c81246e3"}},{"frontComponentId":"13337400-d8f3-4f34-af37-d49e3ea7e706","shape":"edge","input":{"port":"port2","cell":"eef8be81-5d75-420f-a592-e3d6c81246e3"},"output":{"port":"port1","cell":"1a62c229-9226-4bd8-832c-c0acc51ed093"}}]},"timestamp":#timestamp#,"nonce":287,"token":"#token#"}</t>
+  </si>
+  <si>
+    <t>隐匿查询</t>
+  </si>
+  <si>
+    <t>查询单个关键词</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/data/pir/pirSubmitTask</t>
+  </si>
+  <si>
+    <t>{"resourceId":"#resourceId#","pirParam":"张亮","timestamp":#timestamp#,"nonce":"287","token":"#token#"}</t>
+  </si>
+  <si>
+    <t>查询多个关键词</t>
+  </si>
+  <si>
+    <t>{"resourceId":"#resourceId#","pirParam":"李雪娜,蔡滔,熊波","timestamp":#timestamp#,"nonce":"287","token":"#token#"}</t>
+  </si>
+  <si>
+    <t>隐私求交</t>
+  </si>
+  <si>
+    <t>查询关联键求交</t>
+  </si>
+  <si>
+    <t>{"resourceId":"#resourceId#","pirParam":"adb
+","timestamp":#timestamp#,"nonce":"287","token":"#token#"}</t>
+  </si>
+  <si>
+    <t>多个关联键求交</t>
+  </si>
+  <si>
+    <t>{"resourceId":"#resourceId#","pirParam":"成玉伟
+,张亮
+,熊波","timestamp":#timestamp#,"nonce":"287","token":"#token#"}</t>
   </si>
 </sst>
 </file>
@@ -1116,12 +482,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1139,9 +505,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1161,37 +557,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1213,39 +596,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1259,6 +619,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1267,31 +641,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="pingfang sc"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1317,6 +670,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1329,7 +778,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,84 +832,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1426,66 +839,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,8 +861,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1538,17 +891,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1563,6 +910,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1593,168 +955,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1762,17 +1115,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2113,79 +1457,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="9" style="8"/>
-    <col min="3" max="3" width="21.6696428571429" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9" style="8"/>
-    <col min="5" max="5" width="29.5535714285714" style="8" customWidth="1"/>
-    <col min="6" max="6" width="78.5535714285714" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45.5535714285714" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="21.6696428571429" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="29.5535714285714" style="4" customWidth="1"/>
+    <col min="6" max="6" width="78.5535714285714" style="4" customWidth="1"/>
+    <col min="7" max="7" width="45.5535714285714" style="4" customWidth="1"/>
+    <col min="8" max="8" width="29" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="34" spans="1:7">
-      <c r="A2" s="8">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="34" spans="1:7">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
@@ -2193,22 +1537,22 @@
       </c>
     </row>
     <row r="4" ht="34" spans="1:7">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
@@ -2216,22 +1560,22 @@
       </c>
     </row>
     <row r="5" ht="34" spans="1:7">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
@@ -2239,22 +1583,22 @@
       </c>
     </row>
     <row r="6" ht="34" spans="1:7">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G6" t="s">
@@ -2262,22 +1606,22 @@
       </c>
     </row>
     <row r="7" ht="34" spans="1:7">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G7" t="s">
@@ -2285,22 +1629,22 @@
       </c>
     </row>
     <row r="8" ht="34" spans="1:7">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G8" t="s">
@@ -2308,25 +1652,25 @@
       </c>
     </row>
     <row r="9" ht="34" spans="1:7">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2357,127 +1701,127 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="9" style="8"/>
-    <col min="3" max="3" width="21.0446428571429" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9" style="8"/>
-    <col min="5" max="5" width="24.8660714285714" style="8" customWidth="1"/>
-    <col min="6" max="6" width="41.2410714285714" style="8" customWidth="1"/>
-    <col min="7" max="7" width="44.7410714285714" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="8"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="21.0446428571429" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="24.8660714285714" style="4" customWidth="1"/>
+    <col min="6" max="6" width="41.2410714285714" style="4" customWidth="1"/>
+    <col min="7" max="7" width="44.7410714285714" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="17" spans="1:7">
-      <c r="A2" s="8">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:7">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="34" spans="1:7">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:7">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2505,204 +1849,204 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="6.78571428571429" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.8571428571429" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.9017857142857" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.3571428571429" style="2" customWidth="1"/>
-    <col min="6" max="6" width="79.4821428571429" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.0357142857143" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.9642857142857" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.89285714285714" style="2"/>
+    <col min="1" max="1" width="6.78571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.9017857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.3571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="79.4821428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.0357142857143" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.9642857142857" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.89285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" ht="63" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" ht="202" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" ht="252" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" ht="269" spans="1:8">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" ht="269" spans="1:8">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" ht="51" spans="1:8">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2732,82 +2076,82 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="89" customHeight="1" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.69642857142857" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.89285714285714" style="2"/>
-    <col min="3" max="3" width="24.5535714285714" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.7142857142857" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5892857142857" style="2" customWidth="1"/>
-    <col min="6" max="6" width="80.0535714285714" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.6696428571429" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.89285714285714" style="2"/>
+    <col min="1" max="1" width="6.69642857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.89285714285714" style="1"/>
+    <col min="3" max="3" width="24.5535714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5892857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="80.0535714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6696428571429" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.89285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="31" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="2">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="2">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2832,91 +2176,91 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9.14285714285714" style="8"/>
-    <col min="3" max="3" width="24.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="8"/>
-    <col min="5" max="5" width="20.8303571428571" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.8928571428571" style="8" customWidth="1"/>
-    <col min="7" max="7" width="67.1160714285714" style="8" customWidth="1"/>
-    <col min="8" max="8" width="36.0089285714286" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="8"/>
+    <col min="1" max="2" width="9.14285714285714" style="4"/>
+    <col min="3" max="3" width="24.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.14285714285714" style="4"/>
+    <col min="5" max="5" width="20.8303571428571" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.8928571428571" style="4" customWidth="1"/>
+    <col min="7" max="7" width="67.1160714285714" style="4" customWidth="1"/>
+    <col min="8" max="8" width="36.0089285714286" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="31" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="89" customHeight="1" spans="1:8">
-      <c r="A2" s="2">
+    <row r="2" s="1" customFormat="1" ht="89" customHeight="1" spans="1:8">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="89" customHeight="1" spans="1:8">
-      <c r="A3" s="2">
+    <row r="3" s="1" customFormat="1" ht="89" customHeight="1" spans="1:8">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2946,29 +2290,29 @@
     <col min="8" max="8" width="21.2767857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="31" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2988,13 +2332,13 @@
       <c r="E2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3014,13 +2358,13 @@
       <c r="E3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3040,13 +2384,13 @@
       <c r="E4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3066,13 +2410,13 @@
       <c r="E5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3092,13 +2436,13 @@
       <c r="E6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3118,13 +2462,13 @@
       <c r="E7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3144,13 +2488,13 @@
       <c r="E8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3168,13 +2512,13 @@
       <c r="E9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3194,13 +2538,13 @@
       <c r="E10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3220,13 +2564,13 @@
       <c r="E11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3246,13 +2590,13 @@
       <c r="E12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3265,53 +2609,53 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.73214285714286" customWidth="1"/>
-    <col min="2" max="2" width="10.4107142857143" customWidth="1"/>
-    <col min="3" max="3" width="27.6785714285714" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.73214285714286" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.4107142857143" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.6785714285714" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.3839285714286" customWidth="1"/>
     <col min="6" max="6" width="102.982142857143" customWidth="1"/>
     <col min="7" max="7" width="28.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:7">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -3323,18 +2667,18 @@
       <c r="F2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" ht="47" customHeight="1" spans="1:7">
-      <c r="A3" s="3">
+    <row r="3" ht="57" customHeight="1" spans="1:7">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -3343,21 +2687,21 @@
       <c r="E3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" ht="54" customHeight="1" spans="1:7">
-      <c r="A4" s="3">
+    <row r="4" ht="61" customHeight="1" spans="1:7">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -3369,18 +2713,18 @@
       <c r="F4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" ht="49" customHeight="1" spans="1:7">
-      <c r="A5" s="3">
+    <row r="5" ht="80" customHeight="1" spans="1:7">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -3389,21 +2733,21 @@
       <c r="E5" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" ht="59" customHeight="1" spans="1:7">
-      <c r="A6" s="3">
+    <row r="6" ht="55" customHeight="1" spans="1:7">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -3412,21 +2756,21 @@
       <c r="E6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" ht="50" customHeight="1" spans="1:7">
-      <c r="A7" s="3">
+    <row r="7" ht="99" customHeight="1" spans="1:7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -3435,21 +2779,21 @@
       <c r="E7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" ht="91" customHeight="1" spans="1:6">
-      <c r="A8" s="3">
+    <row r="8" ht="95" customHeight="1" spans="1:7">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -3458,28 +2802,11 @@
       <c r="E8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="9" ht="61" customHeight="1" spans="1:6">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>126</v>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3491,14 +2818,93 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="2" width="9.14285714285714" style="2"/>
+    <col min="3" max="3" width="16.8125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.14285714285714" style="2"/>
+    <col min="5" max="5" width="27.8214285714286" style="2" customWidth="1"/>
+    <col min="6" max="6" width="117.410714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.7589285714286" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="17" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3507,14 +2913,90 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="20.9821428571429" customWidth="1"/>
+    <col min="5" max="5" width="20.8303571428571" customWidth="1"/>
+    <col min="6" max="6" width="73.9464285714286" customWidth="1"/>
+    <col min="7" max="7" width="32.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="34" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="51" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12420" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="27900" windowHeight="12420" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="136">
   <si>
     <t>case_id</t>
   </si>
@@ -462,19 +462,13 @@
     <t>隐私求交</t>
   </si>
   <si>
-    <t>查询关联键求交</t>
-  </si>
-  <si>
-    <t>{"resourceId":"#resourceId#","pirParam":"adb
-","timestamp":#timestamp#,"nonce":"287","token":"#token#"}</t>
-  </si>
-  <si>
-    <t>多个关联键求交</t>
-  </si>
-  <si>
-    <t>{"resourceId":"#resourceId#","pirParam":"成玉伟
-,张亮
-,熊波","timestamp":#timestamp#,"nonce":"287","token":"#token#"}</t>
+    <t>单个关联键求交</t>
+  </si>
+  <si>
+    <t>/data/psi/saveDataPsi</t>
+  </si>
+  <si>
+    <t>{"ownOrganId":"#OrganId01#","ownResourceId":"#psiId01#","ownKeyword":"姓名","otherOrganId":"#OrganId02#","otherResourceId":"#psiFusionId02#","otherKeyword":"姓名","outputFormat":"0","outputFilePathType":"0","outputContent":"0","resultOrgan[0]":"#OrganId01#","resultOrganIds":"#OrganId01#","outputNoRepeat":"0","resultName":"psi_a_psi_b","remarks":null,"psiTag":"0","ownOrganName":"#Organname01#","timestamp":#timestamp#,"nonce":"287","token":"#token#"}</t>
   </si>
 </sst>
 </file>
@@ -482,9 +476,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -505,21 +499,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,14 +507,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -550,54 +522,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,7 +545,62 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,6 +614,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -634,15 +628,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,73 +664,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,103 +838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,8 +855,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,7 +865,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,24 +887,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,159 +926,172 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2820,7 +2814,7 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2913,13 +2907,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="20.9821428571429" customWidth="1"/>
     <col min="5" max="5" width="20.8303571428571" customWidth="1"/>
@@ -2950,7 +2944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="34" spans="1:7">
+    <row r="2" ht="71" customHeight="1" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2961,38 +2955,15 @@
         <v>133</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" ht="51" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
